--- a/Symfony/web/uploads/FichierHierarchieRH/HierarchieRH.xlsx
+++ b/Symfony/web/uploads/FichierHierarchieRH/HierarchieRH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://noxingenierie-my.sharepoint.com/personal/l_morisseau_groupe-nox_com/Documents/Partagé avec tout le monde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="37890AECEDD61F82B2A42F78B3A725545F39BF99" xr6:coauthVersionLast="17" xr6:coauthVersionMax="17" xr10:uidLastSave="{A7175280-EC81-423E-A097-376F9C448020}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="34BA23330D5BADDCE0731695EA14A39035646E17" xr6:coauthVersionLast="17" xr6:coauthVersionMax="17" xr10:uidLastSave="{B54EB9D4-951C-430A-9EC2-28B1010E584D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5200" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5157" uniqueCount="1085">
   <si>
     <t>Matricule</t>
   </si>
@@ -2701,12 +2701,6 @@
     <t>CORINE</t>
   </si>
   <si>
-    <t>AYEM</t>
-  </si>
-  <si>
-    <t>Attendre mars pour supprimer</t>
-  </si>
-  <si>
     <t>BATT</t>
   </si>
   <si>
@@ -2941,6 +2935,9 @@
     <t>GIROUD</t>
   </si>
   <si>
+    <t>CORINNE ARNOULT</t>
+  </si>
+  <si>
     <t>GRENAT</t>
   </si>
   <si>
@@ -3118,19 +3115,10 @@
     <t>MULLER</t>
   </si>
   <si>
-    <t>NOTTIN</t>
-  </si>
-  <si>
-    <t>PAOLI</t>
-  </si>
-  <si>
     <t>PASTEUR</t>
   </si>
   <si>
     <t>MAX</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
   </si>
   <si>
     <t>PERNODET</t>
@@ -3763,11 +3751,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L803"/>
+  <dimension ref="A1:L798"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G350" sqref="G350"/>
+      <pane ySplit="1" topLeftCell="C473" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F486" sqref="F486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -19414,42 +19402,39 @@
       <c r="L502" s="2"/>
     </row>
     <row r="503" spans="1:12">
-      <c r="A503" s="5">
-        <v>33099</v>
-      </c>
-      <c r="B503" s="5" t="s">
+      <c r="A503" s="12">
+        <v>32243</v>
+      </c>
+      <c r="B503" s="12" t="s">
         <v>838</v>
       </c>
-      <c r="C503" s="5" t="s">
+      <c r="C503" s="12" t="s">
         <v>868</v>
       </c>
-      <c r="D503" s="5" t="s">
+      <c r="D503" s="12" t="s">
         <v>889</v>
       </c>
-      <c r="E503" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F503" s="5" t="s">
-        <v>874</v>
-      </c>
-      <c r="G503" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="H503" s="5" t="s">
+      <c r="E503" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="F503" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="G503" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="H503" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="I503" s="5" t="s">
+      <c r="I503" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="J503" s="5"/>
-      <c r="K503" s="5" t="s">
-        <v>890</v>
-      </c>
-      <c r="L503" s="3"/>
+      <c r="J503" s="8"/>
+      <c r="K503" s="8"/>
     </row>
     <row r="504" spans="1:12">
       <c r="A504" s="12">
-        <v>32243</v>
+        <v>33355</v>
       </c>
       <c r="B504" s="12" t="s">
         <v>838</v>
@@ -19458,29 +19443,29 @@
         <v>868</v>
       </c>
       <c r="D504" s="12" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E504" s="12" t="s">
-        <v>548</v>
+        <v>497</v>
       </c>
       <c r="F504" s="12" t="s">
         <v>881</v>
       </c>
       <c r="G504" s="12" t="s">
-        <v>882</v>
+        <v>234</v>
       </c>
       <c r="H504" s="8" t="s">
         <v>842</v>
       </c>
       <c r="I504" s="8" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="J504" s="8"/>
       <c r="K504" s="8"/>
     </row>
     <row r="505" spans="1:12">
       <c r="A505" s="12">
-        <v>33355</v>
+        <v>33430</v>
       </c>
       <c r="B505" s="12" t="s">
         <v>838</v>
@@ -19489,16 +19474,16 @@
         <v>868</v>
       </c>
       <c r="D505" s="12" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E505" s="12" t="s">
-        <v>497</v>
+        <v>165</v>
       </c>
       <c r="F505" s="12" t="s">
         <v>881</v>
       </c>
       <c r="G505" s="12" t="s">
-        <v>233</v>
+        <v>882</v>
       </c>
       <c r="H505" s="8" t="s">
         <v>842</v>
@@ -19511,7 +19496,7 @@
     </row>
     <row r="506" spans="1:12">
       <c r="A506" s="12">
-        <v>33430</v>
+        <v>32434</v>
       </c>
       <c r="B506" s="12" t="s">
         <v>838</v>
@@ -19520,16 +19505,16 @@
         <v>868</v>
       </c>
       <c r="D506" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="E506" s="12" t="s">
         <v>893</v>
       </c>
-      <c r="E506" s="12" t="s">
-        <v>165</v>
-      </c>
       <c r="F506" s="12" t="s">
-        <v>881</v>
+        <v>847</v>
       </c>
       <c r="G506" s="12" t="s">
-        <v>882</v>
+        <v>847</v>
       </c>
       <c r="H506" s="8" t="s">
         <v>842</v>
@@ -19542,7 +19527,7 @@
     </row>
     <row r="507" spans="1:12">
       <c r="A507" s="12">
-        <v>32434</v>
+        <v>33021</v>
       </c>
       <c r="B507" s="12" t="s">
         <v>838</v>
@@ -19554,26 +19539,27 @@
         <v>894</v>
       </c>
       <c r="E507" s="12" t="s">
-        <v>895</v>
+        <v>429</v>
       </c>
       <c r="F507" s="12" t="s">
-        <v>847</v>
+        <v>865</v>
       </c>
       <c r="G507" s="12" t="s">
-        <v>847</v>
-      </c>
-      <c r="H507" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="H507" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="I507" s="8" t="s">
+      <c r="I507" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J507" s="8"/>
-      <c r="K507" s="8"/>
+      <c r="J507" s="13"/>
+      <c r="K507" s="13"/>
+      <c r="L507" s="1"/>
     </row>
     <row r="508" spans="1:12">
       <c r="A508" s="12">
-        <v>33021</v>
+        <v>33382</v>
       </c>
       <c r="B508" s="12" t="s">
         <v>838</v>
@@ -19582,30 +19568,29 @@
         <v>868</v>
       </c>
       <c r="D508" s="12" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E508" s="12" t="s">
-        <v>429</v>
+        <v>565</v>
       </c>
       <c r="F508" s="12" t="s">
-        <v>865</v>
+        <v>881</v>
       </c>
       <c r="G508" s="12" t="s">
-        <v>865</v>
-      </c>
-      <c r="H508" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="H508" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="I508" s="13" t="s">
+      <c r="I508" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="J508" s="13"/>
-      <c r="K508" s="13"/>
-      <c r="L508" s="1"/>
+      <c r="J508" s="8"/>
+      <c r="K508" s="8"/>
     </row>
     <row r="509" spans="1:12">
       <c r="A509" s="12">
-        <v>33382</v>
+        <v>699492</v>
       </c>
       <c r="B509" s="12" t="s">
         <v>838</v>
@@ -19614,29 +19599,30 @@
         <v>868</v>
       </c>
       <c r="D509" s="12" t="s">
+        <v>896</v>
+      </c>
+      <c r="E509" s="12" t="s">
         <v>897</v>
       </c>
-      <c r="E509" s="12" t="s">
-        <v>565</v>
-      </c>
       <c r="F509" s="12" t="s">
-        <v>881</v>
+        <v>855</v>
       </c>
       <c r="G509" s="12" t="s">
-        <v>882</v>
-      </c>
-      <c r="H509" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="H509" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="I509" s="8" t="s">
+      <c r="I509" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J509" s="8"/>
-      <c r="K509" s="8"/>
+      <c r="J509" s="13"/>
+      <c r="K509" s="13"/>
+      <c r="L509" s="1"/>
     </row>
     <row r="510" spans="1:12">
       <c r="A510" s="12">
-        <v>699492</v>
+        <v>32873</v>
       </c>
       <c r="B510" s="12" t="s">
         <v>838</v>
@@ -19648,13 +19634,13 @@
         <v>898</v>
       </c>
       <c r="E510" s="12" t="s">
-        <v>899</v>
+        <v>519</v>
       </c>
       <c r="F510" s="12" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="G510" s="12" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="H510" s="13" t="s">
         <v>842</v>
@@ -19668,7 +19654,7 @@
     </row>
     <row r="511" spans="1:12">
       <c r="A511" s="12">
-        <v>32873</v>
+        <v>33262</v>
       </c>
       <c r="B511" s="12" t="s">
         <v>838</v>
@@ -19677,30 +19663,29 @@
         <v>868</v>
       </c>
       <c r="D511" s="12" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E511" s="12" t="s">
-        <v>519</v>
+        <v>323</v>
       </c>
       <c r="F511" s="12" t="s">
-        <v>865</v>
+        <v>881</v>
       </c>
       <c r="G511" s="12" t="s">
-        <v>865</v>
-      </c>
-      <c r="H511" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="H511" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="I511" s="13" t="s">
+      <c r="I511" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="J511" s="13"/>
-      <c r="K511" s="13"/>
-      <c r="L511" s="1"/>
+      <c r="J511" s="8"/>
+      <c r="K511" s="8"/>
     </row>
     <row r="512" spans="1:12">
       <c r="A512" s="12">
-        <v>33262</v>
+        <v>33307</v>
       </c>
       <c r="B512" s="12" t="s">
         <v>838</v>
@@ -19709,29 +19694,30 @@
         <v>868</v>
       </c>
       <c r="D512" s="12" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E512" s="12" t="s">
-        <v>323</v>
+        <v>828</v>
       </c>
       <c r="F512" s="12" t="s">
-        <v>881</v>
+        <v>865</v>
       </c>
       <c r="G512" s="12" t="s">
-        <v>882</v>
-      </c>
-      <c r="H512" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="H512" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="I512" s="8" t="s">
+      <c r="I512" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J512" s="8"/>
-      <c r="K512" s="8"/>
+      <c r="J512" s="13"/>
+      <c r="K512" s="13"/>
+      <c r="L512" s="1"/>
     </row>
     <row r="513" spans="1:12">
       <c r="A513" s="12">
-        <v>33307</v>
+        <v>33636</v>
       </c>
       <c r="B513" s="12" t="s">
         <v>838</v>
@@ -19740,30 +19726,29 @@
         <v>868</v>
       </c>
       <c r="D513" s="12" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E513" s="12" t="s">
-        <v>828</v>
+        <v>384</v>
       </c>
       <c r="F513" s="12" t="s">
-        <v>865</v>
+        <v>874</v>
       </c>
       <c r="G513" s="12" t="s">
-        <v>865</v>
-      </c>
-      <c r="H513" s="13" t="s">
+        <v>871</v>
+      </c>
+      <c r="H513" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="I513" s="13" t="s">
+      <c r="I513" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="J513" s="13"/>
-      <c r="K513" s="13"/>
-      <c r="L513" s="1"/>
+      <c r="J513" s="8"/>
+      <c r="K513" s="8"/>
     </row>
     <row r="514" spans="1:12">
       <c r="A514" s="12">
-        <v>33636</v>
+        <v>962929</v>
       </c>
       <c r="B514" s="12" t="s">
         <v>838</v>
@@ -19772,16 +19757,16 @@
         <v>868</v>
       </c>
       <c r="D514" s="12" t="s">
+        <v>902</v>
+      </c>
+      <c r="E514" s="12" t="s">
         <v>903</v>
-      </c>
-      <c r="E514" s="12" t="s">
-        <v>384</v>
       </c>
       <c r="F514" s="12" t="s">
         <v>874</v>
       </c>
       <c r="G514" s="12" t="s">
-        <v>871</v>
+        <v>847</v>
       </c>
       <c r="H514" s="8" t="s">
         <v>842</v>
@@ -19792,9 +19777,9 @@
       <c r="J514" s="8"/>
       <c r="K514" s="8"/>
     </row>
-    <row r="515" spans="1:12">
+    <row r="515" spans="1:12" s="2" customFormat="1">
       <c r="A515" s="12">
-        <v>962929</v>
+        <v>103642</v>
       </c>
       <c r="B515" s="12" t="s">
         <v>838</v>
@@ -19806,26 +19791,27 @@
         <v>904</v>
       </c>
       <c r="E515" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="F515" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="G515" s="12" t="s">
         <v>905</v>
-      </c>
-      <c r="F515" s="12" t="s">
-        <v>874</v>
-      </c>
-      <c r="G515" s="12" t="s">
-        <v>847</v>
       </c>
       <c r="H515" s="8" t="s">
         <v>842</v>
       </c>
       <c r="I515" s="8" t="s">
-        <v>234</v>
+        <v>17</v>
       </c>
       <c r="J515" s="8"/>
       <c r="K515" s="8"/>
-    </row>
-    <row r="516" spans="1:12" s="2" customFormat="1">
+      <c r="L515"/>
+    </row>
+    <row r="516" spans="1:12">
       <c r="A516" s="12">
-        <v>103642</v>
+        <v>882474</v>
       </c>
       <c r="B516" s="12" t="s">
         <v>838</v>
@@ -19837,27 +19823,26 @@
         <v>906</v>
       </c>
       <c r="E516" s="12" t="s">
-        <v>548</v>
+        <v>907</v>
       </c>
       <c r="F516" s="12" t="s">
-        <v>842</v>
+        <v>874</v>
       </c>
       <c r="G516" s="12" t="s">
-        <v>907</v>
+        <v>847</v>
       </c>
       <c r="H516" s="8" t="s">
         <v>842</v>
       </c>
       <c r="I516" s="8" t="s">
-        <v>17</v>
+        <v>234</v>
       </c>
       <c r="J516" s="8"/>
       <c r="K516" s="8"/>
-      <c r="L516"/>
     </row>
     <row r="517" spans="1:12">
       <c r="A517" s="12">
-        <v>882474</v>
+        <v>102123</v>
       </c>
       <c r="B517" s="12" t="s">
         <v>838</v>
@@ -19869,7 +19854,7 @@
         <v>908</v>
       </c>
       <c r="E517" s="12" t="s">
-        <v>909</v>
+        <v>508</v>
       </c>
       <c r="F517" s="12" t="s">
         <v>874</v>
@@ -19888,7 +19873,7 @@
     </row>
     <row r="518" spans="1:12">
       <c r="A518" s="12">
-        <v>102123</v>
+        <v>100286</v>
       </c>
       <c r="B518" s="12" t="s">
         <v>838</v>
@@ -19897,10 +19882,10 @@
         <v>868</v>
       </c>
       <c r="D518" s="12" t="s">
-        <v>910</v>
+        <v>384</v>
       </c>
       <c r="E518" s="12" t="s">
-        <v>508</v>
+        <v>909</v>
       </c>
       <c r="F518" s="12" t="s">
         <v>874</v>
@@ -19919,7 +19904,7 @@
     </row>
     <row r="519" spans="1:12">
       <c r="A519" s="12">
-        <v>100286</v>
+        <v>32451</v>
       </c>
       <c r="B519" s="12" t="s">
         <v>838</v>
@@ -19928,10 +19913,10 @@
         <v>868</v>
       </c>
       <c r="D519" s="12" t="s">
-        <v>384</v>
+        <v>910</v>
       </c>
       <c r="E519" s="12" t="s">
-        <v>911</v>
+        <v>101</v>
       </c>
       <c r="F519" s="12" t="s">
         <v>874</v>
@@ -19947,10 +19932,11 @@
       </c>
       <c r="J519" s="8"/>
       <c r="K519" s="8"/>
+      <c r="L519" s="22"/>
     </row>
     <row r="520" spans="1:12">
       <c r="A520" s="12">
-        <v>32451</v>
+        <v>693261</v>
       </c>
       <c r="B520" s="12" t="s">
         <v>838</v>
@@ -19959,16 +19945,16 @@
         <v>868</v>
       </c>
       <c r="D520" s="12" t="s">
+        <v>911</v>
+      </c>
+      <c r="E520" s="12" t="s">
         <v>912</v>
       </c>
-      <c r="E520" s="12" t="s">
-        <v>101</v>
-      </c>
       <c r="F520" s="12" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="G520" s="12" t="s">
-        <v>847</v>
+        <v>882</v>
       </c>
       <c r="H520" s="8" t="s">
         <v>842</v>
@@ -19978,11 +19964,10 @@
       </c>
       <c r="J520" s="8"/>
       <c r="K520" s="8"/>
-      <c r="L520" s="22"/>
     </row>
     <row r="521" spans="1:12">
       <c r="A521" s="12">
-        <v>693261</v>
+        <v>32454</v>
       </c>
       <c r="B521" s="12" t="s">
         <v>838</v>
@@ -19994,26 +19979,27 @@
         <v>913</v>
       </c>
       <c r="E521" s="12" t="s">
-        <v>914</v>
+        <v>604</v>
       </c>
       <c r="F521" s="12" t="s">
-        <v>881</v>
+        <v>855</v>
       </c>
       <c r="G521" s="12" t="s">
-        <v>882</v>
-      </c>
-      <c r="H521" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="H521" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="I521" s="8" t="s">
+      <c r="I521" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J521" s="8"/>
-      <c r="K521" s="8"/>
+      <c r="J521" s="13"/>
+      <c r="K521" s="13"/>
+      <c r="L521" s="1"/>
     </row>
     <row r="522" spans="1:12">
       <c r="A522" s="12">
-        <v>32454</v>
+        <v>701312</v>
       </c>
       <c r="B522" s="12" t="s">
         <v>838</v>
@@ -20022,30 +20008,29 @@
         <v>868</v>
       </c>
       <c r="D522" s="12" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E522" s="12" t="s">
-        <v>604</v>
+        <v>168</v>
       </c>
       <c r="F522" s="12" t="s">
-        <v>855</v>
+        <v>874</v>
       </c>
       <c r="G522" s="12" t="s">
-        <v>878</v>
-      </c>
-      <c r="H522" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="H522" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="I522" s="13" t="s">
+      <c r="I522" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="J522" s="13"/>
-      <c r="K522" s="13"/>
-      <c r="L522" s="1"/>
+      <c r="J522" s="8"/>
+      <c r="K522" s="8"/>
     </row>
     <row r="523" spans="1:12">
       <c r="A523" s="12">
-        <v>701312</v>
+        <v>33386</v>
       </c>
       <c r="B523" s="12" t="s">
         <v>838</v>
@@ -20054,10 +20039,10 @@
         <v>868</v>
       </c>
       <c r="D523" s="12" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E523" s="12" t="s">
-        <v>168</v>
+        <v>776</v>
       </c>
       <c r="F523" s="12" t="s">
         <v>874</v>
@@ -20076,7 +20061,7 @@
     </row>
     <row r="524" spans="1:12">
       <c r="A524" s="12">
-        <v>33386</v>
+        <v>33648</v>
       </c>
       <c r="B524" s="12" t="s">
         <v>838</v>
@@ -20085,10 +20070,10 @@
         <v>868</v>
       </c>
       <c r="D524" s="12" t="s">
+        <v>916</v>
+      </c>
+      <c r="E524" s="12" t="s">
         <v>917</v>
-      </c>
-      <c r="E524" s="12" t="s">
-        <v>776</v>
       </c>
       <c r="F524" s="12" t="s">
         <v>874</v>
@@ -20107,7 +20092,7 @@
     </row>
     <row r="525" spans="1:12">
       <c r="A525" s="12">
-        <v>33648</v>
+        <v>33379</v>
       </c>
       <c r="B525" s="12" t="s">
         <v>838</v>
@@ -20119,13 +20104,13 @@
         <v>918</v>
       </c>
       <c r="E525" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F525" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="G525" s="12" t="s">
         <v>919</v>
-      </c>
-      <c r="F525" s="12" t="s">
-        <v>874</v>
-      </c>
-      <c r="G525" s="12" t="s">
-        <v>847</v>
       </c>
       <c r="H525" s="8" t="s">
         <v>842</v>
@@ -20138,7 +20123,7 @@
     </row>
     <row r="526" spans="1:12">
       <c r="A526" s="12">
-        <v>33379</v>
+        <v>8056</v>
       </c>
       <c r="B526" s="12" t="s">
         <v>838</v>
@@ -20150,26 +20135,27 @@
         <v>920</v>
       </c>
       <c r="E526" s="12" t="s">
-        <v>77</v>
+        <v>489</v>
       </c>
       <c r="F526" s="12" t="s">
-        <v>881</v>
+        <v>865</v>
       </c>
       <c r="G526" s="12" t="s">
-        <v>921</v>
-      </c>
-      <c r="H526" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="H526" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="I526" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="J526" s="8"/>
-      <c r="K526" s="8"/>
+      <c r="I526" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="J526" s="13"/>
+      <c r="K526" s="13"/>
+      <c r="L526" s="1"/>
     </row>
     <row r="527" spans="1:12">
       <c r="A527" s="12">
-        <v>8056</v>
+        <v>702968</v>
       </c>
       <c r="B527" s="12" t="s">
         <v>838</v>
@@ -20178,30 +20164,29 @@
         <v>868</v>
       </c>
       <c r="D527" s="12" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E527" s="12" t="s">
-        <v>489</v>
+        <v>519</v>
       </c>
       <c r="F527" s="12" t="s">
-        <v>865</v>
+        <v>874</v>
       </c>
       <c r="G527" s="12" t="s">
-        <v>865</v>
-      </c>
-      <c r="H527" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="H527" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="I527" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="J527" s="13"/>
-      <c r="K527" s="13"/>
-      <c r="L527" s="1"/>
+      <c r="I527" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="J527" s="8"/>
+      <c r="K527" s="8"/>
     </row>
     <row r="528" spans="1:12">
       <c r="A528" s="12">
-        <v>702968</v>
+        <v>32472</v>
       </c>
       <c r="B528" s="12" t="s">
         <v>838</v>
@@ -20210,29 +20195,30 @@
         <v>868</v>
       </c>
       <c r="D528" s="12" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E528" s="12" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="F528" s="12" t="s">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="G528" s="12" t="s">
-        <v>847</v>
-      </c>
-      <c r="H528" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="H528" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="I528" s="8" t="s">
+      <c r="I528" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J528" s="8"/>
-      <c r="K528" s="8"/>
+      <c r="J528" s="13"/>
+      <c r="K528" s="13"/>
+      <c r="L528" s="1"/>
     </row>
     <row r="529" spans="1:12">
       <c r="A529" s="12">
-        <v>32472</v>
+        <v>33457</v>
       </c>
       <c r="B529" s="12" t="s">
         <v>838</v>
@@ -20241,16 +20227,16 @@
         <v>868</v>
       </c>
       <c r="D529" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="E529" s="12" t="s">
         <v>924</v>
       </c>
-      <c r="E529" s="12" t="s">
-        <v>473</v>
-      </c>
       <c r="F529" s="12" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="G529" s="12" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="H529" s="13" t="s">
         <v>842</v>
@@ -20264,7 +20250,7 @@
     </row>
     <row r="530" spans="1:12">
       <c r="A530" s="12">
-        <v>33457</v>
+        <v>32338</v>
       </c>
       <c r="B530" s="12" t="s">
         <v>838</v>
@@ -20276,19 +20262,19 @@
         <v>925</v>
       </c>
       <c r="E530" s="12" t="s">
-        <v>926</v>
+        <v>24</v>
       </c>
       <c r="F530" s="12" t="s">
-        <v>865</v>
+        <v>842</v>
       </c>
       <c r="G530" s="12" t="s">
-        <v>865</v>
+        <v>847</v>
       </c>
       <c r="H530" s="13" t="s">
         <v>842</v>
       </c>
       <c r="I530" s="13" t="s">
-        <v>234</v>
+        <v>50</v>
       </c>
       <c r="J530" s="13"/>
       <c r="K530" s="13"/>
@@ -20296,7 +20282,7 @@
     </row>
     <row r="531" spans="1:12">
       <c r="A531" s="12">
-        <v>32338</v>
+        <v>33406</v>
       </c>
       <c r="B531" s="12" t="s">
         <v>838</v>
@@ -20305,30 +20291,29 @@
         <v>868</v>
       </c>
       <c r="D531" s="12" t="s">
-        <v>927</v>
+        <v>351</v>
       </c>
       <c r="E531" s="12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F531" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="G531" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="H531" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="G531" s="12" t="s">
-        <v>847</v>
-      </c>
-      <c r="H531" s="13" t="s">
-        <v>842</v>
-      </c>
-      <c r="I531" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="J531" s="13"/>
-      <c r="K531" s="13"/>
-      <c r="L531" s="1"/>
+      <c r="I531" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="J531" s="8"/>
+      <c r="K531" s="8"/>
     </row>
     <row r="532" spans="1:12">
       <c r="A532" s="12">
-        <v>33406</v>
+        <v>33316</v>
       </c>
       <c r="B532" s="12" t="s">
         <v>838</v>
@@ -20337,16 +20322,16 @@
         <v>868</v>
       </c>
       <c r="D532" s="12" t="s">
-        <v>351</v>
+        <v>926</v>
       </c>
       <c r="E532" s="12" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F532" s="12" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="G532" s="12" t="s">
-        <v>233</v>
+        <v>847</v>
       </c>
       <c r="H532" s="8" t="s">
         <v>842</v>
@@ -20359,7 +20344,7 @@
     </row>
     <row r="533" spans="1:12">
       <c r="A533" s="12">
-        <v>33316</v>
+        <v>32477</v>
       </c>
       <c r="B533" s="12" t="s">
         <v>838</v>
@@ -20368,10 +20353,10 @@
         <v>868</v>
       </c>
       <c r="D533" s="12" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E533" s="12" t="s">
-        <v>47</v>
+        <v>212</v>
       </c>
       <c r="F533" s="12" t="s">
         <v>874</v>
@@ -20390,7 +20375,7 @@
     </row>
     <row r="534" spans="1:12">
       <c r="A534" s="12">
-        <v>32477</v>
+        <v>32478</v>
       </c>
       <c r="B534" s="12" t="s">
         <v>838</v>
@@ -20399,10 +20384,10 @@
         <v>868</v>
       </c>
       <c r="D534" s="12" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E534" s="12" t="s">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="F534" s="12" t="s">
         <v>874</v>
@@ -20421,7 +20406,7 @@
     </row>
     <row r="535" spans="1:12">
       <c r="A535" s="12">
-        <v>32478</v>
+        <v>718261</v>
       </c>
       <c r="B535" s="12" t="s">
         <v>838</v>
@@ -20430,16 +20415,16 @@
         <v>868</v>
       </c>
       <c r="D535" s="12" t="s">
+        <v>929</v>
+      </c>
+      <c r="E535" s="12" t="s">
         <v>930</v>
       </c>
-      <c r="E535" s="12" t="s">
-        <v>77</v>
-      </c>
       <c r="F535" s="12" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="G535" s="12" t="s">
-        <v>847</v>
+        <v>233</v>
       </c>
       <c r="H535" s="8" t="s">
         <v>842</v>
@@ -20450,9 +20435,9 @@
       <c r="J535" s="8"/>
       <c r="K535" s="8"/>
     </row>
-    <row r="536" spans="1:12">
+    <row r="536" spans="1:12" s="1" customFormat="1">
       <c r="A536" s="12">
-        <v>718261</v>
+        <v>32711</v>
       </c>
       <c r="B536" s="12" t="s">
         <v>838</v>
@@ -20467,23 +20452,23 @@
         <v>932</v>
       </c>
       <c r="F536" s="12" t="s">
-        <v>881</v>
+        <v>855</v>
       </c>
       <c r="G536" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="H536" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="H536" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="I536" s="8" t="s">
+      <c r="I536" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J536" s="8"/>
-      <c r="K536" s="8"/>
+      <c r="J536" s="13"/>
+      <c r="K536" s="13"/>
     </row>
     <row r="537" spans="1:12" s="1" customFormat="1">
       <c r="A537" s="12">
-        <v>32711</v>
+        <v>33323</v>
       </c>
       <c r="B537" s="12" t="s">
         <v>838</v>
@@ -20495,26 +20480,27 @@
         <v>933</v>
       </c>
       <c r="E537" s="12" t="s">
-        <v>934</v>
+        <v>508</v>
       </c>
       <c r="F537" s="12" t="s">
-        <v>855</v>
+        <v>874</v>
       </c>
       <c r="G537" s="12" t="s">
-        <v>878</v>
-      </c>
-      <c r="H537" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="H537" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="I537" s="13" t="s">
+      <c r="I537" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="J537" s="13"/>
-      <c r="K537" s="13"/>
-    </row>
-    <row r="538" spans="1:12" s="1" customFormat="1">
+      <c r="J537" s="8"/>
+      <c r="K537" s="8"/>
+      <c r="L537"/>
+    </row>
+    <row r="538" spans="1:12">
       <c r="A538" s="12">
-        <v>33323</v>
+        <v>705225</v>
       </c>
       <c r="B538" s="12" t="s">
         <v>838</v>
@@ -20523,30 +20509,30 @@
         <v>868</v>
       </c>
       <c r="D538" s="12" t="s">
+        <v>934</v>
+      </c>
+      <c r="E538" s="12" t="s">
         <v>935</v>
       </c>
-      <c r="E538" s="12" t="s">
-        <v>508</v>
-      </c>
       <c r="F538" s="12" t="s">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="G538" s="12" t="s">
-        <v>847</v>
-      </c>
-      <c r="H538" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="H538" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="I538" s="8" t="s">
+      <c r="I538" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J538" s="8"/>
-      <c r="K538" s="8"/>
-      <c r="L538"/>
+      <c r="J538" s="13"/>
+      <c r="K538" s="13"/>
+      <c r="L538" s="1"/>
     </row>
     <row r="539" spans="1:12">
       <c r="A539" s="12">
-        <v>705225</v>
+        <v>709861</v>
       </c>
       <c r="B539" s="12" t="s">
         <v>838</v>
@@ -20558,27 +20544,26 @@
         <v>936</v>
       </c>
       <c r="E539" s="12" t="s">
-        <v>937</v>
+        <v>73</v>
       </c>
       <c r="F539" s="12" t="s">
-        <v>855</v>
+        <v>874</v>
       </c>
       <c r="G539" s="12" t="s">
-        <v>878</v>
-      </c>
-      <c r="H539" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="H539" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="I539" s="13" t="s">
+      <c r="I539" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="J539" s="13"/>
-      <c r="K539" s="13"/>
-      <c r="L539" s="1"/>
+      <c r="J539" s="8"/>
+      <c r="K539" s="8"/>
     </row>
     <row r="540" spans="1:12">
       <c r="A540" s="12">
-        <v>709861</v>
+        <v>33439</v>
       </c>
       <c r="B540" s="12" t="s">
         <v>838</v>
@@ -20587,16 +20572,16 @@
         <v>868</v>
       </c>
       <c r="D540" s="12" t="s">
+        <v>937</v>
+      </c>
+      <c r="E540" s="12" t="s">
         <v>938</v>
       </c>
-      <c r="E540" s="12" t="s">
-        <v>73</v>
-      </c>
       <c r="F540" s="12" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="G540" s="12" t="s">
-        <v>847</v>
+        <v>233</v>
       </c>
       <c r="H540" s="8" t="s">
         <v>842</v>
@@ -20609,7 +20594,7 @@
     </row>
     <row r="541" spans="1:12">
       <c r="A541" s="12">
-        <v>33439</v>
+        <v>33428</v>
       </c>
       <c r="B541" s="12" t="s">
         <v>838</v>
@@ -20621,13 +20606,13 @@
         <v>939</v>
       </c>
       <c r="E541" s="12" t="s">
-        <v>940</v>
+        <v>724</v>
       </c>
       <c r="F541" s="12" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="G541" s="12" t="s">
-        <v>233</v>
+        <v>847</v>
       </c>
       <c r="H541" s="8" t="s">
         <v>842</v>
@@ -20640,7 +20625,7 @@
     </row>
     <row r="542" spans="1:12">
       <c r="A542" s="12">
-        <v>33428</v>
+        <v>694972</v>
       </c>
       <c r="B542" s="12" t="s">
         <v>838</v>
@@ -20649,10 +20634,10 @@
         <v>868</v>
       </c>
       <c r="D542" s="12" t="s">
+        <v>940</v>
+      </c>
+      <c r="E542" s="12" t="s">
         <v>941</v>
-      </c>
-      <c r="E542" s="12" t="s">
-        <v>724</v>
       </c>
       <c r="F542" s="12" t="s">
         <v>874</v>
@@ -20671,7 +20656,7 @@
     </row>
     <row r="543" spans="1:12">
       <c r="A543" s="12">
-        <v>694972</v>
+        <v>33486</v>
       </c>
       <c r="B543" s="12" t="s">
         <v>838</v>
@@ -20686,10 +20671,10 @@
         <v>943</v>
       </c>
       <c r="F543" s="12" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="G543" s="12" t="s">
-        <v>847</v>
+        <v>233</v>
       </c>
       <c r="H543" s="8" t="s">
         <v>842</v>
@@ -20702,7 +20687,7 @@
     </row>
     <row r="544" spans="1:12">
       <c r="A544" s="12">
-        <v>33486</v>
+        <v>33075</v>
       </c>
       <c r="B544" s="12" t="s">
         <v>838</v>
@@ -20714,89 +20699,90 @@
         <v>944</v>
       </c>
       <c r="E544" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="F544" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="G544" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="H544" s="13" t="s">
+        <v>842</v>
+      </c>
+      <c r="I544" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="J544" s="13"/>
+      <c r="K544" s="13"/>
+      <c r="L544" s="1"/>
+    </row>
+    <row r="545" spans="1:12">
+      <c r="A545" s="11">
+        <v>705053</v>
+      </c>
+      <c r="B545" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="C545" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="D545" s="11" t="s">
         <v>945</v>
       </c>
-      <c r="F544" s="12" t="s">
-        <v>881</v>
-      </c>
-      <c r="G544" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="H544" s="8" t="s">
+      <c r="E545" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="F545" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="G545" s="11" t="s">
+        <v>847</v>
+      </c>
+      <c r="H545" s="14" t="s">
         <v>842</v>
       </c>
-      <c r="I544" s="8" t="s">
+      <c r="I545" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="J544" s="8"/>
-      <c r="K544" s="8"/>
-    </row>
-    <row r="545" spans="1:12">
-      <c r="A545" s="12">
-        <v>33075</v>
-      </c>
-      <c r="B545" s="12" t="s">
+      <c r="J545" s="8"/>
+      <c r="K545" s="8"/>
+    </row>
+    <row r="546" spans="1:12">
+      <c r="A546" s="12">
+        <v>718697</v>
+      </c>
+      <c r="B546" s="12" t="s">
         <v>838</v>
       </c>
-      <c r="C545" s="12" t="s">
+      <c r="C546" s="12" t="s">
         <v>868</v>
       </c>
-      <c r="D545" s="12" t="s">
-        <v>946</v>
-      </c>
-      <c r="E545" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="F545" s="12" t="s">
+      <c r="D546" s="12" t="s">
+        <v>948</v>
+      </c>
+      <c r="E546" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="F546" s="12" t="s">
         <v>855</v>
       </c>
-      <c r="G545" s="12" t="s">
+      <c r="G546" s="12" t="s">
         <v>878</v>
       </c>
-      <c r="H545" s="13" t="s">
+      <c r="H546" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="I545" s="13" t="s">
+      <c r="I546" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J545" s="13"/>
-      <c r="K545" s="13"/>
-      <c r="L545" s="1"/>
-    </row>
-    <row r="546" spans="1:12">
-      <c r="A546" s="11">
-        <v>705053</v>
-      </c>
-      <c r="B546" s="11" t="s">
-        <v>838</v>
-      </c>
-      <c r="C546" s="11" t="s">
-        <v>868</v>
-      </c>
-      <c r="D546" s="11" t="s">
-        <v>947</v>
-      </c>
-      <c r="E546" s="11" t="s">
-        <v>948</v>
-      </c>
-      <c r="F546" s="11" t="s">
-        <v>949</v>
-      </c>
-      <c r="G546" s="11" t="s">
-        <v>847</v>
-      </c>
-      <c r="H546" s="14" t="s">
-        <v>842</v>
-      </c>
-      <c r="I546" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="J546" s="8"/>
-      <c r="K546" s="8"/>
+      <c r="J546" s="13"/>
+      <c r="K546" s="13"/>
+      <c r="L546" s="1"/>
     </row>
     <row r="547" spans="1:12">
       <c r="A547" s="12">
-        <v>718697</v>
+        <v>32499</v>
       </c>
       <c r="B547" s="12" t="s">
         <v>838</v>
@@ -20805,30 +20791,29 @@
         <v>868</v>
       </c>
       <c r="D547" s="12" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E547" s="12" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
       <c r="F547" s="12" t="s">
-        <v>855</v>
+        <v>874</v>
       </c>
       <c r="G547" s="12" t="s">
-        <v>878</v>
-      </c>
-      <c r="H547" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="H547" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="I547" s="13" t="s">
+      <c r="I547" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="J547" s="13"/>
-      <c r="K547" s="13"/>
-      <c r="L547" s="1"/>
+      <c r="J547" s="8"/>
+      <c r="K547" s="8"/>
     </row>
     <row r="548" spans="1:12">
       <c r="A548" s="12">
-        <v>32499</v>
+        <v>33592</v>
       </c>
       <c r="B548" s="12" t="s">
         <v>838</v>
@@ -20837,10 +20822,10 @@
         <v>868</v>
       </c>
       <c r="D548" s="12" t="s">
+        <v>950</v>
+      </c>
+      <c r="E548" s="12" t="s">
         <v>951</v>
-      </c>
-      <c r="E548" s="12" t="s">
-        <v>282</v>
       </c>
       <c r="F548" s="12" t="s">
         <v>874</v>
@@ -20859,7 +20844,7 @@
     </row>
     <row r="549" spans="1:12">
       <c r="A549" s="12">
-        <v>33592</v>
+        <v>33308</v>
       </c>
       <c r="B549" s="12" t="s">
         <v>838</v>
@@ -20871,13 +20856,13 @@
         <v>952</v>
       </c>
       <c r="E549" s="12" t="s">
-        <v>953</v>
+        <v>116</v>
       </c>
       <c r="F549" s="12" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="G549" s="12" t="s">
-        <v>847</v>
+        <v>919</v>
       </c>
       <c r="H549" s="8" t="s">
         <v>842</v>
@@ -20890,7 +20875,7 @@
     </row>
     <row r="550" spans="1:12">
       <c r="A550" s="12">
-        <v>33308</v>
+        <v>922213</v>
       </c>
       <c r="B550" s="12" t="s">
         <v>838</v>
@@ -20899,16 +20884,16 @@
         <v>868</v>
       </c>
       <c r="D550" s="12" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E550" s="12" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="F550" s="12" t="s">
-        <v>881</v>
+        <v>840</v>
       </c>
       <c r="G550" s="12" t="s">
-        <v>921</v>
+        <v>847</v>
       </c>
       <c r="H550" s="8" t="s">
         <v>842</v>
@@ -20921,7 +20906,7 @@
     </row>
     <row r="551" spans="1:12">
       <c r="A551" s="12">
-        <v>922213</v>
+        <v>32507</v>
       </c>
       <c r="B551" s="12" t="s">
         <v>838</v>
@@ -20930,16 +20915,16 @@
         <v>868</v>
       </c>
       <c r="D551" s="12" t="s">
+        <v>954</v>
+      </c>
+      <c r="E551" s="12" t="s">
         <v>955</v>
       </c>
-      <c r="E551" s="12" t="s">
-        <v>73</v>
-      </c>
       <c r="F551" s="12" t="s">
-        <v>840</v>
+        <v>881</v>
       </c>
       <c r="G551" s="12" t="s">
-        <v>847</v>
+        <v>233</v>
       </c>
       <c r="H551" s="8" t="s">
         <v>842</v>
@@ -20952,7 +20937,7 @@
     </row>
     <row r="552" spans="1:12">
       <c r="A552" s="12">
-        <v>32507</v>
+        <v>33476</v>
       </c>
       <c r="B552" s="12" t="s">
         <v>838</v>
@@ -20964,26 +20949,27 @@
         <v>956</v>
       </c>
       <c r="E552" s="12" t="s">
-        <v>957</v>
+        <v>44</v>
       </c>
       <c r="F552" s="12" t="s">
-        <v>881</v>
+        <v>855</v>
       </c>
       <c r="G552" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="H552" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="H552" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="I552" s="8" t="s">
+      <c r="I552" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J552" s="8"/>
-      <c r="K552" s="8"/>
+      <c r="J552" s="13"/>
+      <c r="K552" s="13"/>
+      <c r="L552" s="1"/>
     </row>
     <row r="553" spans="1:12">
       <c r="A553" s="12">
-        <v>33476</v>
+        <v>770299</v>
       </c>
       <c r="B553" s="12" t="s">
         <v>838</v>
@@ -20992,30 +20978,29 @@
         <v>868</v>
       </c>
       <c r="D553" s="12" t="s">
+        <v>957</v>
+      </c>
+      <c r="E553" s="12" t="s">
         <v>958</v>
       </c>
-      <c r="E553" s="12" t="s">
-        <v>44</v>
-      </c>
       <c r="F553" s="12" t="s">
-        <v>855</v>
+        <v>840</v>
       </c>
       <c r="G553" s="12" t="s">
-        <v>878</v>
-      </c>
-      <c r="H553" s="13" t="s">
+        <v>841</v>
+      </c>
+      <c r="H553" s="12" t="s">
         <v>842</v>
       </c>
-      <c r="I553" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="J553" s="13"/>
-      <c r="K553" s="13"/>
-      <c r="L553" s="1"/>
+      <c r="I553" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="J553" s="12"/>
+      <c r="K553" s="8"/>
     </row>
     <row r="554" spans="1:12">
       <c r="A554" s="12">
-        <v>770299</v>
+        <v>33337</v>
       </c>
       <c r="B554" s="12" t="s">
         <v>838</v>
@@ -21024,29 +21009,29 @@
         <v>868</v>
       </c>
       <c r="D554" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="E554" s="12" t="s">
         <v>959</v>
       </c>
-      <c r="E554" s="12" t="s">
-        <v>960</v>
-      </c>
       <c r="F554" s="12" t="s">
-        <v>840</v>
+        <v>881</v>
       </c>
       <c r="G554" s="12" t="s">
-        <v>841</v>
-      </c>
-      <c r="H554" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="H554" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="I554" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="J554" s="12"/>
+      <c r="I554" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="J554" s="8"/>
       <c r="K554" s="8"/>
     </row>
     <row r="555" spans="1:12">
       <c r="A555" s="12">
-        <v>33337</v>
+        <v>32900</v>
       </c>
       <c r="B555" s="12" t="s">
         <v>838</v>
@@ -21055,16 +21040,16 @@
         <v>868</v>
       </c>
       <c r="D555" s="12" t="s">
-        <v>383</v>
+        <v>960</v>
       </c>
       <c r="E555" s="12" t="s">
-        <v>961</v>
+        <v>758</v>
       </c>
       <c r="F555" s="12" t="s">
         <v>881</v>
       </c>
       <c r="G555" s="12" t="s">
-        <v>233</v>
+        <v>882</v>
       </c>
       <c r="H555" s="8" t="s">
         <v>842</v>
@@ -21076,70 +21061,70 @@
       <c r="K555" s="8"/>
     </row>
     <row r="556" spans="1:12">
-      <c r="A556" s="12">
-        <v>32900</v>
-      </c>
-      <c r="B556" s="12" t="s">
+      <c r="A556" s="11">
+        <v>32512</v>
+      </c>
+      <c r="B556" s="11" t="s">
         <v>838</v>
       </c>
-      <c r="C556" s="12" t="s">
+      <c r="C556" s="11" t="s">
         <v>868</v>
       </c>
-      <c r="D556" s="12" t="s">
-        <v>962</v>
-      </c>
-      <c r="E556" s="12" t="s">
-        <v>758</v>
-      </c>
-      <c r="F556" s="12" t="s">
-        <v>881</v>
-      </c>
-      <c r="G556" s="12" t="s">
-        <v>882</v>
-      </c>
-      <c r="H556" s="8" t="s">
+      <c r="D556" s="11" t="s">
+        <v>961</v>
+      </c>
+      <c r="E556" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="F556" s="11" t="s">
         <v>842</v>
       </c>
-      <c r="I556" s="8" t="s">
-        <v>234</v>
+      <c r="G556" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H556" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="I556" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="J556" s="8"/>
       <c r="K556" s="8"/>
     </row>
     <row r="557" spans="1:12">
-      <c r="A557" s="11">
-        <v>32512</v>
-      </c>
-      <c r="B557" s="11" t="s">
+      <c r="A557" s="12">
+        <v>898805</v>
+      </c>
+      <c r="B557" s="12" t="s">
         <v>838</v>
       </c>
-      <c r="C557" s="11" t="s">
+      <c r="C557" s="12" t="s">
         <v>868</v>
       </c>
-      <c r="D557" s="11" t="s">
+      <c r="D557" s="12" t="s">
+        <v>962</v>
+      </c>
+      <c r="E557" s="12" t="s">
         <v>963</v>
       </c>
-      <c r="E557" s="11" t="s">
-        <v>800</v>
-      </c>
-      <c r="F557" s="11" t="s">
+      <c r="F557" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="G557" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="H557" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="G557" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="H557" s="7" t="s">
-        <v>842</v>
-      </c>
-      <c r="I557" s="7" t="s">
-        <v>31</v>
+      <c r="I557" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="J557" s="8"/>
       <c r="K557" s="8"/>
     </row>
     <row r="558" spans="1:12">
       <c r="A558" s="12">
-        <v>898805</v>
+        <v>33388</v>
       </c>
       <c r="B558" s="12" t="s">
         <v>838</v>
@@ -21170,7 +21155,7 @@
     </row>
     <row r="559" spans="1:12">
       <c r="A559" s="12">
-        <v>33388</v>
+        <v>964729</v>
       </c>
       <c r="B559" s="12" t="s">
         <v>838</v>
@@ -21182,89 +21167,89 @@
         <v>966</v>
       </c>
       <c r="E559" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F559" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="G559" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="H559" s="13" t="s">
+        <v>842</v>
+      </c>
+      <c r="I559" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="J559" s="13"/>
+      <c r="K559" s="13"/>
+      <c r="L559" s="1"/>
+    </row>
+    <row r="560" spans="1:12">
+      <c r="A560" s="11">
+        <v>33247</v>
+      </c>
+      <c r="B560" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="C560" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="D560" s="11" t="s">
+        <v>966</v>
+      </c>
+      <c r="E560" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F560" s="11" t="s">
         <v>967</v>
       </c>
-      <c r="F559" s="12" t="s">
-        <v>874</v>
-      </c>
-      <c r="G559" s="12" t="s">
-        <v>847</v>
-      </c>
-      <c r="H559" s="8" t="s">
+      <c r="G560" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="H560" s="14" t="s">
         <v>842</v>
       </c>
-      <c r="I559" s="8" t="s">
+      <c r="I560" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="J560" s="8"/>
+      <c r="K560" s="8"/>
+    </row>
+    <row r="561" spans="1:12">
+      <c r="A561" s="12">
+        <v>33237</v>
+      </c>
+      <c r="B561" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="C561" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="D561" s="12" t="s">
+        <v>968</v>
+      </c>
+      <c r="E561" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F561" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="G561" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="H561" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="I561" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="J559" s="8"/>
-      <c r="K559" s="8"/>
-    </row>
-    <row r="560" spans="1:12">
-      <c r="A560" s="12">
-        <v>964729</v>
-      </c>
-      <c r="B560" s="12" t="s">
-        <v>838</v>
-      </c>
-      <c r="C560" s="12" t="s">
-        <v>868</v>
-      </c>
-      <c r="D560" s="12" t="s">
-        <v>968</v>
-      </c>
-      <c r="E560" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F560" s="12" t="s">
-        <v>855</v>
-      </c>
-      <c r="G560" s="12" t="s">
-        <v>878</v>
-      </c>
-      <c r="H560" s="13" t="s">
-        <v>842</v>
-      </c>
-      <c r="I560" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="J560" s="13"/>
-      <c r="K560" s="13"/>
-      <c r="L560" s="1"/>
-    </row>
-    <row r="561" spans="1:12">
-      <c r="A561" s="11">
-        <v>33247</v>
-      </c>
-      <c r="B561" s="11" t="s">
-        <v>838</v>
-      </c>
-      <c r="C561" s="11" t="s">
-        <v>868</v>
-      </c>
-      <c r="D561" s="11" t="s">
-        <v>968</v>
-      </c>
-      <c r="E561" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F561" s="11" t="s">
-        <v>949</v>
-      </c>
-      <c r="G561" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="H561" s="14" t="s">
-        <v>842</v>
-      </c>
-      <c r="I561" s="14" t="s">
-        <v>241</v>
       </c>
       <c r="J561" s="8"/>
       <c r="K561" s="8"/>
     </row>
     <row r="562" spans="1:12">
       <c r="A562" s="12">
-        <v>33237</v>
+        <v>33431</v>
       </c>
       <c r="B562" s="12" t="s">
         <v>838</v>
@@ -21276,26 +21261,27 @@
         <v>969</v>
       </c>
       <c r="E562" s="12" t="s">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="F562" s="12" t="s">
-        <v>881</v>
+        <v>855</v>
       </c>
       <c r="G562" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="H562" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="H562" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="I562" s="8" t="s">
+      <c r="I562" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J562" s="8"/>
-      <c r="K562" s="8"/>
+      <c r="J562" s="13"/>
+      <c r="K562" s="13"/>
+      <c r="L562" s="1"/>
     </row>
     <row r="563" spans="1:12">
       <c r="A563" s="12">
-        <v>33431</v>
+        <v>32974</v>
       </c>
       <c r="B563" s="12" t="s">
         <v>838</v>
@@ -21304,16 +21290,16 @@
         <v>868</v>
       </c>
       <c r="D563" s="12" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E563" s="12" t="s">
-        <v>971</v>
+        <v>143</v>
       </c>
       <c r="F563" s="12" t="s">
         <v>855</v>
       </c>
       <c r="G563" s="12" t="s">
-        <v>847</v>
+        <v>865</v>
       </c>
       <c r="H563" s="13" t="s">
         <v>842</v>
@@ -21326,133 +21312,135 @@
       <c r="L563" s="1"/>
     </row>
     <row r="564" spans="1:12">
-      <c r="A564" s="12">
-        <v>32974</v>
-      </c>
-      <c r="B564" s="12" t="s">
+      <c r="A564" s="11">
+        <v>33479</v>
+      </c>
+      <c r="B564" s="11" t="s">
         <v>838</v>
       </c>
-      <c r="C564" s="12" t="s">
+      <c r="C564" s="11" t="s">
         <v>868</v>
       </c>
-      <c r="D564" s="12" t="s">
+      <c r="D564" s="11" t="s">
         <v>972</v>
       </c>
-      <c r="E564" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="F564" s="12" t="s">
-        <v>855</v>
-      </c>
-      <c r="G564" s="12" t="s">
-        <v>865</v>
-      </c>
-      <c r="H564" s="13" t="s">
+      <c r="E564" s="11" t="s">
+        <v>973</v>
+      </c>
+      <c r="F564" s="11" t="s">
         <v>842</v>
       </c>
-      <c r="I564" s="13" t="s">
-        <v>234</v>
+      <c r="G564" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H564" s="14" t="s">
+        <v>842</v>
+      </c>
+      <c r="I564" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="J564" s="13"/>
       <c r="K564" s="13"/>
       <c r="L564" s="1"/>
     </row>
     <row r="565" spans="1:12">
-      <c r="A565" s="11">
+      <c r="A565" s="12">
         <v>33479</v>
       </c>
-      <c r="B565" s="11" t="s">
+      <c r="B565" s="12" t="s">
         <v>838</v>
       </c>
-      <c r="C565" s="11" t="s">
+      <c r="C565" s="12" t="s">
         <v>868</v>
       </c>
-      <c r="D565" s="11" t="s">
+      <c r="D565" s="12" t="s">
+        <v>972</v>
+      </c>
+      <c r="E565" s="12" t="s">
         <v>973</v>
       </c>
-      <c r="E565" s="11" t="s">
+      <c r="F565" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="G565" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H565" s="13" t="s">
+        <v>842</v>
+      </c>
+      <c r="I565" s="13" t="s">
         <v>974</v>
-      </c>
-      <c r="F565" s="11" t="s">
-        <v>842</v>
-      </c>
-      <c r="G565" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H565" s="14" t="s">
-        <v>842</v>
-      </c>
-      <c r="I565" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="J565" s="13"/>
       <c r="K565" s="13"/>
       <c r="L565" s="1"/>
     </row>
     <row r="566" spans="1:12">
-      <c r="A566" s="12">
-        <v>33479</v>
-      </c>
-      <c r="B566" s="12" t="s">
+      <c r="A566" s="11">
+        <v>103646</v>
+      </c>
+      <c r="B566" s="11" t="s">
         <v>838</v>
       </c>
-      <c r="C566" s="12" t="s">
+      <c r="C566" s="11" t="s">
         <v>868</v>
       </c>
-      <c r="D566" s="12" t="s">
-        <v>973</v>
-      </c>
-      <c r="E566" s="12" t="s">
-        <v>974</v>
-      </c>
-      <c r="F566" s="12" t="s">
+      <c r="D566" s="11" t="s">
+        <v>975</v>
+      </c>
+      <c r="E566" s="11" t="s">
+        <v>976</v>
+      </c>
+      <c r="F566" s="11" t="s">
         <v>842</v>
       </c>
-      <c r="G566" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H566" s="13" t="s">
+      <c r="G566" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H566" s="7" t="s">
         <v>842</v>
       </c>
-      <c r="I566" s="13" t="s">
-        <v>975</v>
-      </c>
-      <c r="J566" s="13"/>
-      <c r="K566" s="13"/>
-      <c r="L566" s="1"/>
+      <c r="I566" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J566" s="8"/>
+      <c r="K566" s="8"/>
     </row>
     <row r="567" spans="1:12">
-      <c r="A567" s="11">
-        <v>103646</v>
-      </c>
-      <c r="B567" s="11" t="s">
+      <c r="A567" s="12">
+        <v>33610</v>
+      </c>
+      <c r="B567" s="12" t="s">
         <v>838</v>
       </c>
-      <c r="C567" s="11" t="s">
+      <c r="C567" s="12" t="s">
         <v>868</v>
       </c>
-      <c r="D567" s="11" t="s">
-        <v>976</v>
-      </c>
-      <c r="E567" s="11" t="s">
+      <c r="D567" s="12" t="s">
         <v>977</v>
       </c>
-      <c r="F567" s="11" t="s">
+      <c r="E567" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F567" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="G567" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="H567" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="G567" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H567" s="7" t="s">
-        <v>842</v>
-      </c>
-      <c r="I567" s="7"/>
-      <c r="J567" s="8"/>
-      <c r="K567" s="8"/>
+      <c r="I567" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="J567" s="13"/>
+      <c r="K567" s="13"/>
+      <c r="L567" s="1"/>
     </row>
     <row r="568" spans="1:12">
       <c r="A568" s="12">
-        <v>33610</v>
+        <v>33434</v>
       </c>
       <c r="B568" s="12" t="s">
         <v>838</v>
@@ -21464,27 +21452,26 @@
         <v>978</v>
       </c>
       <c r="E568" s="12" t="s">
-        <v>101</v>
+        <v>979</v>
       </c>
       <c r="F568" s="12" t="s">
-        <v>855</v>
+        <v>881</v>
       </c>
       <c r="G568" s="12" t="s">
-        <v>871</v>
-      </c>
-      <c r="H568" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="H568" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="I568" s="13" t="s">
+      <c r="I568" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="J568" s="13"/>
-      <c r="K568" s="13"/>
-      <c r="L568" s="1"/>
+      <c r="J568" s="8"/>
+      <c r="K568" s="8"/>
     </row>
     <row r="569" spans="1:12">
       <c r="A569" s="12">
-        <v>33434</v>
+        <v>33176</v>
       </c>
       <c r="B569" s="12" t="s">
         <v>838</v>
@@ -21493,85 +21480,86 @@
         <v>868</v>
       </c>
       <c r="D569" s="12" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E569" s="12" t="s">
-        <v>980</v>
+        <v>429</v>
       </c>
       <c r="F569" s="12" t="s">
-        <v>881</v>
+        <v>855</v>
       </c>
       <c r="G569" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="H569" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="H569" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="I569" s="8" t="s">
+      <c r="I569" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J569" s="8"/>
-      <c r="K569" s="8"/>
+      <c r="J569" s="13"/>
+      <c r="K569" s="13"/>
+      <c r="L569" s="1"/>
     </row>
     <row r="570" spans="1:12">
-      <c r="A570" s="12">
-        <v>33176</v>
-      </c>
-      <c r="B570" s="12" t="s">
+      <c r="A570" s="11">
+        <v>706516</v>
+      </c>
+      <c r="B570" s="11" t="s">
         <v>838</v>
       </c>
-      <c r="C570" s="12" t="s">
+      <c r="C570" s="11" t="s">
         <v>868</v>
       </c>
-      <c r="D570" s="12" t="s">
+      <c r="D570" s="11" t="s">
         <v>981</v>
       </c>
-      <c r="E570" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="F570" s="12" t="s">
-        <v>855</v>
-      </c>
-      <c r="G570" s="12" t="s">
-        <v>847</v>
-      </c>
-      <c r="H570" s="13" t="s">
+      <c r="E570" s="11" t="s">
+        <v>982</v>
+      </c>
+      <c r="F570" s="11" t="s">
         <v>842</v>
       </c>
-      <c r="I570" s="13" t="s">
-        <v>234</v>
+      <c r="G570" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H570" s="14" t="s">
+        <v>842</v>
+      </c>
+      <c r="I570" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="J570" s="13"/>
       <c r="K570" s="13"/>
       <c r="L570" s="1"/>
     </row>
     <row r="571" spans="1:12">
-      <c r="A571" s="11">
-        <v>706516</v>
-      </c>
-      <c r="B571" s="11" t="s">
+      <c r="A571" s="12">
+        <v>33437</v>
+      </c>
+      <c r="B571" s="12" t="s">
         <v>838</v>
       </c>
-      <c r="C571" s="11" t="s">
+      <c r="C571" s="12" t="s">
         <v>868</v>
       </c>
-      <c r="D571" s="11" t="s">
-        <v>982</v>
-      </c>
-      <c r="E571" s="11" t="s">
+      <c r="D571" s="12" t="s">
         <v>983</v>
       </c>
-      <c r="F571" s="11" t="s">
+      <c r="E571" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F571" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="G571" s="12" t="s">
+        <v>984</v>
+      </c>
+      <c r="H571" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="G571" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H571" s="14" t="s">
-        <v>842</v>
-      </c>
-      <c r="I571" s="14" t="s">
-        <v>17</v>
+      <c r="I571" s="13" t="s">
+        <v>234</v>
       </c>
       <c r="J571" s="13"/>
       <c r="K571" s="13"/>
@@ -21579,7 +21567,7 @@
     </row>
     <row r="572" spans="1:12">
       <c r="A572" s="12">
-        <v>33437</v>
+        <v>33536</v>
       </c>
       <c r="B572" s="12" t="s">
         <v>838</v>
@@ -21588,16 +21576,16 @@
         <v>868</v>
       </c>
       <c r="D572" s="12" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E572" s="12" t="s">
-        <v>101</v>
+        <v>623</v>
       </c>
       <c r="F572" s="12" t="s">
         <v>855</v>
       </c>
       <c r="G572" s="12" t="s">
-        <v>985</v>
+        <v>871</v>
       </c>
       <c r="H572" s="13" t="s">
         <v>842</v>
@@ -21611,7 +21599,7 @@
     </row>
     <row r="573" spans="1:12">
       <c r="A573" s="12">
-        <v>33536</v>
+        <v>33418</v>
       </c>
       <c r="B573" s="12" t="s">
         <v>838</v>
@@ -21623,27 +21611,26 @@
         <v>986</v>
       </c>
       <c r="E573" s="12" t="s">
-        <v>623</v>
+        <v>987</v>
       </c>
       <c r="F573" s="12" t="s">
-        <v>855</v>
+        <v>874</v>
       </c>
       <c r="G573" s="12" t="s">
-        <v>871</v>
-      </c>
-      <c r="H573" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="H573" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="I573" s="13" t="s">
+      <c r="I573" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="J573" s="13"/>
-      <c r="K573" s="13"/>
-      <c r="L573" s="1"/>
+      <c r="J573" s="8"/>
+      <c r="K573" s="8"/>
     </row>
     <row r="574" spans="1:12">
       <c r="A574" s="12">
-        <v>33418</v>
+        <v>8102</v>
       </c>
       <c r="B574" s="12" t="s">
         <v>838</v>
@@ -21652,29 +21639,30 @@
         <v>868</v>
       </c>
       <c r="D574" s="12" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E574" s="12" t="s">
-        <v>988</v>
+        <v>612</v>
       </c>
       <c r="F574" s="12" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="G574" s="12" t="s">
-        <v>847</v>
-      </c>
-      <c r="H574" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="H574" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="I574" s="8" t="s">
+      <c r="I574" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J574" s="8"/>
-      <c r="K574" s="8"/>
+      <c r="J574" s="13"/>
+      <c r="K574" s="13"/>
+      <c r="L574" s="1"/>
     </row>
     <row r="575" spans="1:12">
       <c r="A575" s="12">
-        <v>8102</v>
+        <v>726644</v>
       </c>
       <c r="B575" s="12" t="s">
         <v>838</v>
@@ -21686,27 +21674,26 @@
         <v>989</v>
       </c>
       <c r="E575" s="12" t="s">
-        <v>612</v>
+        <v>990</v>
       </c>
       <c r="F575" s="12" t="s">
-        <v>865</v>
+        <v>874</v>
       </c>
       <c r="G575" s="12" t="s">
-        <v>865</v>
-      </c>
-      <c r="H575" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="H575" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="I575" s="13" t="s">
+      <c r="I575" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="J575" s="13"/>
-      <c r="K575" s="13"/>
-      <c r="L575" s="1"/>
+      <c r="J575" s="8"/>
+      <c r="K575" s="8"/>
     </row>
     <row r="576" spans="1:12">
       <c r="A576" s="12">
-        <v>726644</v>
+        <v>33482</v>
       </c>
       <c r="B576" s="12" t="s">
         <v>838</v>
@@ -21715,16 +21702,16 @@
         <v>868</v>
       </c>
       <c r="D576" s="12" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E576" s="12" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="F576" s="12" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="G576" s="12" t="s">
-        <v>847</v>
+        <v>882</v>
       </c>
       <c r="H576" s="8" t="s">
         <v>842</v>
@@ -21737,7 +21724,7 @@
     </row>
     <row r="577" spans="1:12">
       <c r="A577" s="12">
-        <v>33482</v>
+        <v>694706</v>
       </c>
       <c r="B577" s="12" t="s">
         <v>838</v>
@@ -21746,29 +21733,29 @@
         <v>868</v>
       </c>
       <c r="D577" s="12" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E577" s="12" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F577" s="12" t="s">
-        <v>881</v>
+        <v>840</v>
       </c>
       <c r="G577" s="12" t="s">
-        <v>882</v>
-      </c>
-      <c r="H577" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="H577" s="12" t="s">
         <v>842</v>
       </c>
-      <c r="I577" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="J577" s="8"/>
+      <c r="I577" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="J577" s="12"/>
       <c r="K577" s="8"/>
     </row>
     <row r="578" spans="1:12">
       <c r="A578" s="12">
-        <v>694706</v>
+        <v>700665</v>
       </c>
       <c r="B578" s="12" t="s">
         <v>838</v>
@@ -21777,29 +21764,30 @@
         <v>868</v>
       </c>
       <c r="D578" s="12" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E578" s="12" t="s">
-        <v>995</v>
+        <v>101</v>
       </c>
       <c r="F578" s="12" t="s">
-        <v>840</v>
+        <v>855</v>
       </c>
       <c r="G578" s="12" t="s">
-        <v>841</v>
-      </c>
-      <c r="H578" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="H578" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="I578" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="J578" s="12"/>
-      <c r="K578" s="8"/>
+      <c r="I578" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="J578" s="13"/>
+      <c r="K578" s="13"/>
+      <c r="L578" s="1"/>
     </row>
     <row r="579" spans="1:12">
       <c r="A579" s="12">
-        <v>700665</v>
+        <v>32817</v>
       </c>
       <c r="B579" s="12" t="s">
         <v>838</v>
@@ -21811,27 +21799,26 @@
         <v>996</v>
       </c>
       <c r="E579" s="12" t="s">
-        <v>101</v>
+        <v>997</v>
       </c>
       <c r="F579" s="12" t="s">
-        <v>855</v>
+        <v>874</v>
       </c>
       <c r="G579" s="12" t="s">
         <v>847</v>
       </c>
-      <c r="H579" s="13" t="s">
+      <c r="H579" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="I579" s="13" t="s">
+      <c r="I579" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="J579" s="13"/>
-      <c r="K579" s="13"/>
-      <c r="L579" s="1"/>
+      <c r="J579" s="8"/>
+      <c r="K579" s="8"/>
     </row>
     <row r="580" spans="1:12">
       <c r="A580" s="12">
-        <v>32817</v>
+        <v>33591</v>
       </c>
       <c r="B580" s="12" t="s">
         <v>838</v>
@@ -21840,10 +21827,10 @@
         <v>868</v>
       </c>
       <c r="D580" s="12" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E580" s="12" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F580" s="12" t="s">
         <v>874</v>
@@ -21862,7 +21849,7 @@
     </row>
     <row r="581" spans="1:12">
       <c r="A581" s="12">
-        <v>33591</v>
+        <v>32548</v>
       </c>
       <c r="B581" s="12" t="s">
         <v>838</v>
@@ -21871,16 +21858,16 @@
         <v>868</v>
       </c>
       <c r="D581" s="12" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E581" s="12" t="s">
-        <v>1000</v>
+        <v>473</v>
       </c>
       <c r="F581" s="12" t="s">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="G581" s="12" t="s">
-        <v>847</v>
+        <v>234</v>
       </c>
       <c r="H581" s="8" t="s">
         <v>842</v>
@@ -21893,7 +21880,7 @@
     </row>
     <row r="582" spans="1:12">
       <c r="A582" s="12">
-        <v>32548</v>
+        <v>33094</v>
       </c>
       <c r="B582" s="12" t="s">
         <v>838</v>
@@ -21905,26 +21892,27 @@
         <v>1001</v>
       </c>
       <c r="E582" s="12" t="s">
-        <v>473</v>
+        <v>1002</v>
       </c>
       <c r="F582" s="12" t="s">
         <v>855</v>
       </c>
       <c r="G582" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="H582" s="13" t="s">
+        <v>842</v>
+      </c>
+      <c r="I582" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="H582" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="I582" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="J582" s="8"/>
-      <c r="K582" s="8"/>
+      <c r="J582" s="13"/>
+      <c r="K582" s="13"/>
+      <c r="L582" s="1"/>
     </row>
     <row r="583" spans="1:12">
       <c r="A583" s="12">
-        <v>33094</v>
+        <v>33589</v>
       </c>
       <c r="B583" s="12" t="s">
         <v>838</v>
@@ -21933,10 +21921,10 @@
         <v>868</v>
       </c>
       <c r="D583" s="12" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E583" s="12" t="s">
-        <v>1003</v>
+        <v>105</v>
       </c>
       <c r="F583" s="12" t="s">
         <v>855</v>
@@ -21956,7 +21944,7 @@
     </row>
     <row r="584" spans="1:12">
       <c r="A584" s="12">
-        <v>33589</v>
+        <v>33222</v>
       </c>
       <c r="B584" s="12" t="s">
         <v>838</v>
@@ -21968,27 +21956,26 @@
         <v>1004</v>
       </c>
       <c r="E584" s="12" t="s">
-        <v>105</v>
+        <v>976</v>
       </c>
       <c r="F584" s="12" t="s">
-        <v>855</v>
+        <v>874</v>
       </c>
       <c r="G584" s="12" t="s">
-        <v>878</v>
-      </c>
-      <c r="H584" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="H584" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="I584" s="13" t="s">
+      <c r="I584" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="J584" s="13"/>
-      <c r="K584" s="13"/>
-      <c r="L584" s="1"/>
+      <c r="J584" s="8"/>
+      <c r="K584" s="8"/>
     </row>
     <row r="585" spans="1:12">
       <c r="A585" s="12">
-        <v>33222</v>
+        <v>32356</v>
       </c>
       <c r="B585" s="12" t="s">
         <v>838</v>
@@ -22000,13 +21987,13 @@
         <v>1005</v>
       </c>
       <c r="E585" s="12" t="s">
-        <v>977</v>
+        <v>323</v>
       </c>
       <c r="F585" s="12" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="G585" s="12" t="s">
-        <v>847</v>
+        <v>882</v>
       </c>
       <c r="H585" s="8" t="s">
         <v>842</v>
@@ -22019,7 +22006,7 @@
     </row>
     <row r="586" spans="1:12">
       <c r="A586" s="12">
-        <v>32356</v>
+        <v>32347</v>
       </c>
       <c r="B586" s="12" t="s">
         <v>838</v>
@@ -22031,13 +22018,13 @@
         <v>1006</v>
       </c>
       <c r="E586" s="12" t="s">
-        <v>323</v>
+        <v>1007</v>
       </c>
       <c r="F586" s="12" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="G586" s="12" t="s">
-        <v>882</v>
+        <v>847</v>
       </c>
       <c r="H586" s="8" t="s">
         <v>842</v>
@@ -22050,7 +22037,7 @@
     </row>
     <row r="587" spans="1:12">
       <c r="A587" s="12">
-        <v>32347</v>
+        <v>836846</v>
       </c>
       <c r="B587" s="12" t="s">
         <v>838</v>
@@ -22059,29 +22046,30 @@
         <v>868</v>
       </c>
       <c r="D587" s="12" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E587" s="12" t="s">
-        <v>1008</v>
+        <v>47</v>
       </c>
       <c r="F587" s="12" t="s">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="G587" s="12" t="s">
-        <v>847</v>
-      </c>
-      <c r="H587" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="H587" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="I587" s="8" t="s">
+      <c r="I587" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J587" s="8"/>
-      <c r="K587" s="8"/>
+      <c r="J587" s="13"/>
+      <c r="K587" s="13"/>
+      <c r="L587" s="1"/>
     </row>
     <row r="588" spans="1:12">
       <c r="A588" s="12">
-        <v>836846</v>
+        <v>32558</v>
       </c>
       <c r="B588" s="12" t="s">
         <v>838</v>
@@ -22093,7 +22081,7 @@
         <v>1009</v>
       </c>
       <c r="E588" s="12" t="s">
-        <v>47</v>
+        <v>572</v>
       </c>
       <c r="F588" s="12" t="s">
         <v>855</v>
@@ -22113,7 +22101,7 @@
     </row>
     <row r="589" spans="1:12">
       <c r="A589" s="12">
-        <v>32558</v>
+        <v>33305</v>
       </c>
       <c r="B589" s="12" t="s">
         <v>838</v>
@@ -22125,27 +22113,26 @@
         <v>1010</v>
       </c>
       <c r="E589" s="12" t="s">
-        <v>572</v>
+        <v>165</v>
       </c>
       <c r="F589" s="12" t="s">
-        <v>855</v>
+        <v>881</v>
       </c>
       <c r="G589" s="12" t="s">
-        <v>871</v>
-      </c>
-      <c r="H589" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="H589" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="I589" s="13" t="s">
+      <c r="I589" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="J589" s="13"/>
-      <c r="K589" s="13"/>
-      <c r="L589" s="1"/>
+      <c r="J589" s="8"/>
+      <c r="K589" s="8"/>
     </row>
     <row r="590" spans="1:12">
       <c r="A590" s="12">
-        <v>33305</v>
+        <v>32559</v>
       </c>
       <c r="B590" s="12" t="s">
         <v>838</v>
@@ -22157,13 +22144,13 @@
         <v>1011</v>
       </c>
       <c r="E590" s="12" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="F590" s="12" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="G590" s="12" t="s">
-        <v>233</v>
+        <v>847</v>
       </c>
       <c r="H590" s="8" t="s">
         <v>842</v>
@@ -22176,7 +22163,7 @@
     </row>
     <row r="591" spans="1:12">
       <c r="A591" s="12">
-        <v>32559</v>
+        <v>32137</v>
       </c>
       <c r="B591" s="12" t="s">
         <v>838</v>
@@ -22188,7 +22175,7 @@
         <v>1012</v>
       </c>
       <c r="E591" s="12" t="s">
-        <v>47</v>
+        <v>1013</v>
       </c>
       <c r="F591" s="12" t="s">
         <v>874</v>
@@ -22207,7 +22194,7 @@
     </row>
     <row r="592" spans="1:12">
       <c r="A592" s="12">
-        <v>32137</v>
+        <v>718086</v>
       </c>
       <c r="B592" s="12" t="s">
         <v>838</v>
@@ -22216,29 +22203,30 @@
         <v>868</v>
       </c>
       <c r="D592" s="12" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E592" s="12" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F592" s="12" t="s">
-        <v>874</v>
+        <v>842</v>
       </c>
       <c r="G592" s="12" t="s">
-        <v>847</v>
-      </c>
-      <c r="H592" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H592" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="I592" s="8" t="s">
+      <c r="I592" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J592" s="8"/>
-      <c r="K592" s="8"/>
+      <c r="J592" s="13"/>
+      <c r="K592" s="13"/>
+      <c r="L592" s="1"/>
     </row>
     <row r="593" spans="1:12">
       <c r="A593" s="12">
-        <v>718086</v>
+        <v>33270</v>
       </c>
       <c r="B593" s="12" t="s">
         <v>838</v>
@@ -22247,16 +22235,16 @@
         <v>868</v>
       </c>
       <c r="D593" s="12" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E593" s="12" t="s">
-        <v>1016</v>
+        <v>861</v>
       </c>
       <c r="F593" s="12" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
       <c r="G593" s="12" t="s">
-        <v>233</v>
+        <v>878</v>
       </c>
       <c r="H593" s="13" t="s">
         <v>842</v>
@@ -22270,7 +22258,7 @@
     </row>
     <row r="594" spans="1:12">
       <c r="A594" s="12">
-        <v>33270</v>
+        <v>703852</v>
       </c>
       <c r="B594" s="12" t="s">
         <v>838</v>
@@ -22279,16 +22267,16 @@
         <v>868</v>
       </c>
       <c r="D594" s="12" t="s">
-        <v>1017</v>
+        <v>706</v>
       </c>
       <c r="E594" s="12" t="s">
-        <v>861</v>
+        <v>81</v>
       </c>
       <c r="F594" s="12" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="G594" s="12" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="H594" s="13" t="s">
         <v>842</v>
@@ -22302,7 +22290,7 @@
     </row>
     <row r="595" spans="1:12">
       <c r="A595" s="12">
-        <v>703852</v>
+        <v>834223</v>
       </c>
       <c r="B595" s="12" t="s">
         <v>838</v>
@@ -22311,30 +22299,29 @@
         <v>868</v>
       </c>
       <c r="D595" s="12" t="s">
-        <v>706</v>
+        <v>1017</v>
       </c>
       <c r="E595" s="12" t="s">
-        <v>81</v>
+        <v>1018</v>
       </c>
       <c r="F595" s="12" t="s">
-        <v>865</v>
+        <v>874</v>
       </c>
       <c r="G595" s="12" t="s">
-        <v>865</v>
-      </c>
-      <c r="H595" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="H595" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="I595" s="13" t="s">
+      <c r="I595" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="J595" s="13"/>
-      <c r="K595" s="13"/>
-      <c r="L595" s="1"/>
+      <c r="J595" s="8"/>
+      <c r="K595" s="8"/>
     </row>
     <row r="596" spans="1:12">
       <c r="A596" s="12">
-        <v>834223</v>
+        <v>33041</v>
       </c>
       <c r="B596" s="12" t="s">
         <v>838</v>
@@ -22343,10 +22330,10 @@
         <v>868</v>
       </c>
       <c r="D596" s="12" t="s">
-        <v>1018</v>
+        <v>239</v>
       </c>
       <c r="E596" s="12" t="s">
-        <v>1019</v>
+        <v>47</v>
       </c>
       <c r="F596" s="12" t="s">
         <v>874</v>
@@ -22365,7 +22352,7 @@
     </row>
     <row r="597" spans="1:12">
       <c r="A597" s="12">
-        <v>33041</v>
+        <v>32567</v>
       </c>
       <c r="B597" s="12" t="s">
         <v>838</v>
@@ -22377,26 +22364,27 @@
         <v>239</v>
       </c>
       <c r="E597" s="12" t="s">
-        <v>47</v>
+        <v>758</v>
       </c>
       <c r="F597" s="12" t="s">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="G597" s="12" t="s">
         <v>847</v>
       </c>
-      <c r="H597" s="8" t="s">
+      <c r="H597" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="I597" s="8" t="s">
+      <c r="I597" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J597" s="8"/>
-      <c r="K597" s="8"/>
+      <c r="J597" s="13"/>
+      <c r="K597" s="13"/>
+      <c r="L597" s="1"/>
     </row>
     <row r="598" spans="1:12">
       <c r="A598" s="12">
-        <v>32567</v>
+        <v>33614</v>
       </c>
       <c r="B598" s="12" t="s">
         <v>838</v>
@@ -22405,16 +22393,16 @@
         <v>868</v>
       </c>
       <c r="D598" s="12" t="s">
-        <v>239</v>
+        <v>1019</v>
       </c>
       <c r="E598" s="12" t="s">
-        <v>758</v>
+        <v>1020</v>
       </c>
       <c r="F598" s="12" t="s">
         <v>855</v>
       </c>
       <c r="G598" s="12" t="s">
-        <v>847</v>
+        <v>878</v>
       </c>
       <c r="H598" s="13" t="s">
         <v>842</v>
@@ -22428,7 +22416,7 @@
     </row>
     <row r="599" spans="1:12">
       <c r="A599" s="12">
-        <v>33614</v>
+        <v>32059</v>
       </c>
       <c r="B599" s="12" t="s">
         <v>838</v>
@@ -22437,30 +22425,29 @@
         <v>868</v>
       </c>
       <c r="D599" s="12" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E599" s="12" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="F599" s="12" t="s">
-        <v>855</v>
+        <v>881</v>
       </c>
       <c r="G599" s="12" t="s">
-        <v>878</v>
-      </c>
-      <c r="H599" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="H599" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="I599" s="13" t="s">
+      <c r="I599" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="J599" s="13"/>
-      <c r="K599" s="13"/>
-      <c r="L599" s="1"/>
+      <c r="J599" s="8"/>
+      <c r="K599" s="8"/>
     </row>
     <row r="600" spans="1:12">
       <c r="A600" s="12">
-        <v>32059</v>
+        <v>32576</v>
       </c>
       <c r="B600" s="12" t="s">
         <v>838</v>
@@ -22469,29 +22456,30 @@
         <v>868</v>
       </c>
       <c r="D600" s="12" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E600" s="12" t="s">
-        <v>1023</v>
+        <v>52</v>
       </c>
       <c r="F600" s="12" t="s">
-        <v>881</v>
+        <v>855</v>
       </c>
       <c r="G600" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="H600" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="H600" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="I600" s="8" t="s">
+      <c r="I600" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J600" s="8"/>
-      <c r="K600" s="8"/>
+      <c r="J600" s="13"/>
+      <c r="K600" s="13"/>
+      <c r="L600" s="1"/>
     </row>
     <row r="601" spans="1:12">
       <c r="A601" s="12">
-        <v>32576</v>
+        <v>33637</v>
       </c>
       <c r="B601" s="12" t="s">
         <v>838</v>
@@ -22503,27 +22491,26 @@
         <v>1024</v>
       </c>
       <c r="E601" s="12" t="s">
-        <v>52</v>
+        <v>1025</v>
       </c>
       <c r="F601" s="12" t="s">
-        <v>855</v>
+        <v>881</v>
       </c>
       <c r="G601" s="12" t="s">
-        <v>878</v>
-      </c>
-      <c r="H601" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="H601" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="I601" s="13" t="s">
+      <c r="I601" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="J601" s="13"/>
-      <c r="K601" s="13"/>
-      <c r="L601" s="1"/>
+      <c r="J601" s="8"/>
+      <c r="K601" s="8"/>
     </row>
     <row r="602" spans="1:12">
       <c r="A602" s="12">
-        <v>33637</v>
+        <v>33436</v>
       </c>
       <c r="B602" s="12" t="s">
         <v>838</v>
@@ -22532,16 +22519,16 @@
         <v>868</v>
       </c>
       <c r="D602" s="12" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E602" s="12" t="s">
-        <v>1026</v>
+        <v>970</v>
       </c>
       <c r="F602" s="12" t="s">
         <v>881</v>
       </c>
       <c r="G602" s="12" t="s">
-        <v>882</v>
+        <v>233</v>
       </c>
       <c r="H602" s="8" t="s">
         <v>842</v>
@@ -22554,7 +22541,7 @@
     </row>
     <row r="603" spans="1:12">
       <c r="A603" s="12">
-        <v>33436</v>
+        <v>33154</v>
       </c>
       <c r="B603" s="12" t="s">
         <v>838</v>
@@ -22563,16 +22550,16 @@
         <v>868</v>
       </c>
       <c r="D603" s="12" t="s">
-        <v>1027</v>
+        <v>716</v>
       </c>
       <c r="E603" s="12" t="s">
-        <v>971</v>
+        <v>625</v>
       </c>
       <c r="F603" s="12" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="G603" s="12" t="s">
-        <v>233</v>
+        <v>984</v>
       </c>
       <c r="H603" s="8" t="s">
         <v>842</v>
@@ -22584,42 +22571,40 @@
       <c r="K603" s="8"/>
     </row>
     <row r="604" spans="1:12">
-      <c r="A604" s="5">
-        <v>33571</v>
-      </c>
-      <c r="B604" s="5" t="s">
+      <c r="A604" s="12">
+        <v>32584</v>
+      </c>
+      <c r="B604" s="12" t="s">
         <v>838</v>
       </c>
-      <c r="C604" s="5" t="s">
+      <c r="C604" s="12" t="s">
         <v>868</v>
       </c>
-      <c r="D604" s="5" t="s">
+      <c r="D604" s="12" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E604" s="12" t="s">
         <v>1028</v>
       </c>
-      <c r="E604" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="F604" s="5" t="s">
-        <v>874</v>
-      </c>
-      <c r="G604" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="H604" s="5" t="s">
+      <c r="F604" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="G604" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="H604" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="I604" s="5" t="s">
+      <c r="I604" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J604" s="5"/>
-      <c r="K604" s="5" t="s">
-        <v>890</v>
-      </c>
-      <c r="L604" s="3"/>
+      <c r="J604" s="13"/>
+      <c r="K604" s="13"/>
+      <c r="L604" s="1"/>
     </row>
     <row r="605" spans="1:12">
       <c r="A605" s="12">
-        <v>33154</v>
+        <v>32838</v>
       </c>
       <c r="B605" s="12" t="s">
         <v>838</v>
@@ -22628,63 +22613,62 @@
         <v>868</v>
       </c>
       <c r="D605" s="12" t="s">
-        <v>716</v>
+        <v>1029</v>
       </c>
       <c r="E605" s="12" t="s">
-        <v>625</v>
+        <v>1030</v>
       </c>
       <c r="F605" s="12" t="s">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="G605" s="12" t="s">
-        <v>985</v>
-      </c>
-      <c r="H605" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="H605" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="I605" s="8" t="s">
+      <c r="I605" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J605" s="8"/>
-      <c r="K605" s="8"/>
+      <c r="J605" s="13"/>
+      <c r="K605" s="13"/>
+      <c r="L605" s="1"/>
     </row>
     <row r="606" spans="1:12">
-      <c r="A606" s="5">
-        <v>33089</v>
-      </c>
-      <c r="B606" s="5" t="s">
+      <c r="A606" s="12">
+        <v>33266</v>
+      </c>
+      <c r="B606" s="12" t="s">
         <v>838</v>
       </c>
-      <c r="C606" s="5" t="s">
+      <c r="C606" s="12" t="s">
         <v>868</v>
       </c>
-      <c r="D606" s="5" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E606" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="F606" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="G606" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="H606" s="5" t="s">
+      <c r="D606" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E606" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="F606" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="G606" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="H606" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="I606" s="5" t="s">
+      <c r="I606" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J606" s="5"/>
-      <c r="K606" s="5" t="s">
-        <v>890</v>
-      </c>
-      <c r="L606" s="3"/>
+      <c r="J606" s="13"/>
+      <c r="K606" s="13"/>
+      <c r="L606" s="1"/>
     </row>
     <row r="607" spans="1:12">
       <c r="A607" s="12">
-        <v>32584</v>
+        <v>32772</v>
       </c>
       <c r="B607" s="12" t="s">
         <v>838</v>
@@ -22693,16 +22677,16 @@
         <v>868</v>
       </c>
       <c r="D607" s="12" t="s">
-        <v>1030</v>
+        <v>696</v>
       </c>
       <c r="E607" s="12" t="s">
-        <v>1031</v>
+        <v>47</v>
       </c>
       <c r="F607" s="12" t="s">
         <v>855</v>
       </c>
       <c r="G607" s="12" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="H607" s="13" t="s">
         <v>842</v>
@@ -22715,42 +22699,39 @@
       <c r="L607" s="1"/>
     </row>
     <row r="608" spans="1:12">
-      <c r="A608" s="5">
-        <v>33532</v>
-      </c>
-      <c r="B608" s="5" t="s">
+      <c r="A608" s="12">
+        <v>33498</v>
+      </c>
+      <c r="B608" s="12" t="s">
         <v>838</v>
       </c>
-      <c r="C608" s="5" t="s">
+      <c r="C608" s="12" t="s">
         <v>868</v>
       </c>
-      <c r="D608" s="5" t="s">
+      <c r="D608" s="12" t="s">
         <v>1032</v>
       </c>
-      <c r="E608" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="F608" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="G608" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="H608" s="5" t="s">
+      <c r="E608" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F608" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="G608" s="12" t="s">
+        <v>919</v>
+      </c>
+      <c r="H608" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="I608" s="5" t="s">
+      <c r="I608" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="J608" s="5"/>
-      <c r="K608" s="5" t="s">
-        <v>890</v>
-      </c>
-      <c r="L608" s="3"/>
+      <c r="J608" s="8"/>
+      <c r="K608" s="8"/>
     </row>
     <row r="609" spans="1:12">
       <c r="A609" s="12">
-        <v>32838</v>
+        <v>32822</v>
       </c>
       <c r="B609" s="12" t="s">
         <v>838</v>
@@ -22762,51 +22743,50 @@
         <v>1033</v>
       </c>
       <c r="E609" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F609" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="G609" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="H609" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="I609" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="J609" s="8"/>
+      <c r="K609" s="8"/>
+    </row>
+    <row r="610" spans="1:12">
+      <c r="A610" s="11">
+        <v>32866</v>
+      </c>
+      <c r="B610" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="C610" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="D610" s="11" t="s">
         <v>1034</v>
       </c>
-      <c r="F609" s="12" t="s">
-        <v>855</v>
-      </c>
-      <c r="G609" s="12" t="s">
-        <v>847</v>
-      </c>
-      <c r="H609" s="13" t="s">
+      <c r="E610" s="11" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F610" s="11" t="s">
         <v>842</v>
       </c>
-      <c r="I609" s="13" t="s">
+      <c r="G610" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="J609" s="13"/>
-      <c r="K609" s="13"/>
-      <c r="L609" s="1"/>
-    </row>
-    <row r="610" spans="1:12">
-      <c r="A610" s="12">
-        <v>33266</v>
-      </c>
-      <c r="B610" s="12" t="s">
-        <v>838</v>
-      </c>
-      <c r="C610" s="12" t="s">
-        <v>868</v>
-      </c>
-      <c r="D610" s="12" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E610" s="12" t="s">
-        <v>856</v>
-      </c>
-      <c r="F610" s="12" t="s">
-        <v>855</v>
-      </c>
-      <c r="G610" s="12" t="s">
-        <v>871</v>
-      </c>
-      <c r="H610" s="13" t="s">
+      <c r="H610" s="14" t="s">
         <v>842</v>
       </c>
-      <c r="I610" s="13" t="s">
-        <v>234</v>
+      <c r="I610" s="14" t="s">
+        <v>241</v>
       </c>
       <c r="J610" s="13"/>
       <c r="K610" s="13"/>
@@ -22814,7 +22794,7 @@
     </row>
     <row r="611" spans="1:12">
       <c r="A611" s="12">
-        <v>32772</v>
+        <v>32851</v>
       </c>
       <c r="B611" s="12" t="s">
         <v>838</v>
@@ -22823,30 +22803,29 @@
         <v>868</v>
       </c>
       <c r="D611" s="12" t="s">
-        <v>696</v>
+        <v>1036</v>
       </c>
       <c r="E611" s="12" t="s">
-        <v>47</v>
+        <v>429</v>
       </c>
       <c r="F611" s="12" t="s">
-        <v>855</v>
+        <v>881</v>
       </c>
       <c r="G611" s="12" t="s">
-        <v>878</v>
-      </c>
-      <c r="H611" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="H611" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="I611" s="13" t="s">
+      <c r="I611" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="J611" s="13"/>
-      <c r="K611" s="13"/>
-      <c r="L611" s="1"/>
+      <c r="J611" s="8"/>
+      <c r="K611" s="8"/>
     </row>
     <row r="612" spans="1:12">
       <c r="A612" s="12">
-        <v>33498</v>
+        <v>33550</v>
       </c>
       <c r="B612" s="12" t="s">
         <v>838</v>
@@ -22855,16 +22834,16 @@
         <v>868</v>
       </c>
       <c r="D612" s="12" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="E612" s="12" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F612" s="12" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="G612" s="12" t="s">
-        <v>921</v>
+        <v>847</v>
       </c>
       <c r="H612" s="8" t="s">
         <v>842</v>
@@ -22877,7 +22856,7 @@
     </row>
     <row r="613" spans="1:12">
       <c r="A613" s="12">
-        <v>32822</v>
+        <v>33506</v>
       </c>
       <c r="B613" s="12" t="s">
         <v>838</v>
@@ -22886,16 +22865,16 @@
         <v>868</v>
       </c>
       <c r="D613" s="12" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="E613" s="12" t="s">
-        <v>570</v>
+        <v>1039</v>
       </c>
       <c r="F613" s="12" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="G613" s="12" t="s">
-        <v>233</v>
+        <v>847</v>
       </c>
       <c r="H613" s="8" t="s">
         <v>842</v>
@@ -22908,7 +22887,7 @@
     </row>
     <row r="614" spans="1:12">
       <c r="A614" s="12">
-        <v>32866</v>
+        <v>732046</v>
       </c>
       <c r="B614" s="12" t="s">
         <v>838</v>
@@ -22917,62 +22896,60 @@
         <v>868</v>
       </c>
       <c r="D614" s="12" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="E614" s="12" t="s">
-        <v>1039</v>
+        <v>212</v>
       </c>
       <c r="F614" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="G614" s="12" t="s">
+        <v>919</v>
+      </c>
+      <c r="H614" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="G614" s="12" t="s">
+      <c r="I614" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="H614" s="13" t="s">
+      <c r="J614" s="8"/>
+      <c r="K614" s="8"/>
+    </row>
+    <row r="615" spans="1:12">
+      <c r="A615" s="12">
+        <v>705055</v>
+      </c>
+      <c r="B615" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="C615" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="D615" s="12" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E615" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F615" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="G615" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="H615" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="I614" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J614" s="13"/>
-      <c r="K614" s="13"/>
-      <c r="L614" s="1"/>
-    </row>
-    <row r="615" spans="1:12">
-      <c r="A615" s="11">
-        <v>32866</v>
-      </c>
-      <c r="B615" s="11" t="s">
-        <v>838</v>
-      </c>
-      <c r="C615" s="11" t="s">
-        <v>868</v>
-      </c>
-      <c r="D615" s="11" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E615" s="11" t="s">
-        <v>1039</v>
-      </c>
-      <c r="F615" s="11" t="s">
-        <v>842</v>
-      </c>
-      <c r="G615" s="11" t="s">
+      <c r="I615" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="H615" s="14" t="s">
-        <v>842</v>
-      </c>
-      <c r="I615" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="J615" s="13"/>
-      <c r="K615" s="13"/>
-      <c r="L615" s="1"/>
+      <c r="J615" s="8"/>
+      <c r="K615" s="8"/>
     </row>
     <row r="616" spans="1:12">
       <c r="A616" s="12">
-        <v>32851</v>
+        <v>33452</v>
       </c>
       <c r="B616" s="12" t="s">
         <v>838</v>
@@ -22981,16 +22958,16 @@
         <v>868</v>
       </c>
       <c r="D616" s="12" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="E616" s="12" t="s">
-        <v>429</v>
+        <v>257</v>
       </c>
       <c r="F616" s="12" t="s">
         <v>881</v>
       </c>
       <c r="G616" s="12" t="s">
-        <v>921</v>
+        <v>882</v>
       </c>
       <c r="H616" s="8" t="s">
         <v>842</v>
@@ -23003,7 +22980,7 @@
     </row>
     <row r="617" spans="1:12">
       <c r="A617" s="12">
-        <v>33550</v>
+        <v>33033</v>
       </c>
       <c r="B617" s="12" t="s">
         <v>838</v>
@@ -23012,16 +22989,16 @@
         <v>868</v>
       </c>
       <c r="D617" s="12" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="E617" s="12" t="s">
-        <v>73</v>
+        <v>355</v>
       </c>
       <c r="F617" s="12" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="G617" s="12" t="s">
-        <v>847</v>
+        <v>233</v>
       </c>
       <c r="H617" s="8" t="s">
         <v>842</v>
@@ -23034,7 +23011,7 @@
     </row>
     <row r="618" spans="1:12">
       <c r="A618" s="12">
-        <v>33506</v>
+        <v>33362</v>
       </c>
       <c r="B618" s="12" t="s">
         <v>838</v>
@@ -23043,16 +23020,16 @@
         <v>868</v>
       </c>
       <c r="D618" s="12" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E618" s="12" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="F618" s="12" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="G618" s="12" t="s">
-        <v>847</v>
+        <v>233</v>
       </c>
       <c r="H618" s="8" t="s">
         <v>842</v>
@@ -23065,7 +23042,7 @@
     </row>
     <row r="619" spans="1:12">
       <c r="A619" s="12">
-        <v>732046</v>
+        <v>33218</v>
       </c>
       <c r="B619" s="12" t="s">
         <v>838</v>
@@ -23074,16 +23051,16 @@
         <v>868</v>
       </c>
       <c r="D619" s="12" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="E619" s="12" t="s">
-        <v>212</v>
+        <v>1047</v>
       </c>
       <c r="F619" s="12" t="s">
         <v>881</v>
       </c>
       <c r="G619" s="12" t="s">
-        <v>921</v>
+        <v>233</v>
       </c>
       <c r="H619" s="8" t="s">
         <v>842</v>
@@ -23096,7 +23073,7 @@
     </row>
     <row r="620" spans="1:12">
       <c r="A620" s="12">
-        <v>705055</v>
+        <v>709835</v>
       </c>
       <c r="B620" s="12" t="s">
         <v>838</v>
@@ -23105,60 +23082,62 @@
         <v>868</v>
       </c>
       <c r="D620" s="12" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="E620" s="12" t="s">
-        <v>76</v>
+        <v>1049</v>
       </c>
       <c r="F620" s="12" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="G620" s="12" t="s">
-        <v>847</v>
-      </c>
-      <c r="H620" s="8" t="s">
+        <v>984</v>
+      </c>
+      <c r="H620" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="I620" s="8" t="s">
+      <c r="I620" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J620" s="8"/>
-      <c r="K620" s="8"/>
+      <c r="J620" s="13"/>
+      <c r="K620" s="13"/>
+      <c r="L620" s="1"/>
     </row>
     <row r="621" spans="1:12">
-      <c r="A621" s="12">
-        <v>33452</v>
-      </c>
-      <c r="B621" s="12" t="s">
+      <c r="A621" s="11">
+        <v>932239</v>
+      </c>
+      <c r="B621" s="11" t="s">
         <v>838</v>
       </c>
-      <c r="C621" s="12" t="s">
+      <c r="C621" s="11" t="s">
         <v>868</v>
       </c>
-      <c r="D621" s="12" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E621" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="F621" s="12" t="s">
-        <v>881</v>
-      </c>
-      <c r="G621" s="12" t="s">
-        <v>882</v>
-      </c>
-      <c r="H621" s="8" t="s">
+      <c r="D621" s="11" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E621" s="11" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F621" s="11" t="s">
         <v>842</v>
       </c>
-      <c r="I621" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="J621" s="8"/>
-      <c r="K621" s="8"/>
+      <c r="G621" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H621" s="14" t="s">
+        <v>842</v>
+      </c>
+      <c r="I621" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J621" s="13"/>
+      <c r="K621" s="13"/>
+      <c r="L621" s="1"/>
     </row>
     <row r="622" spans="1:12">
       <c r="A622" s="12">
-        <v>33033</v>
+        <v>33513</v>
       </c>
       <c r="B622" s="12" t="s">
         <v>838</v>
@@ -23167,16 +23146,16 @@
         <v>868</v>
       </c>
       <c r="D622" s="12" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="E622" s="12" t="s">
-        <v>355</v>
+        <v>530</v>
       </c>
       <c r="F622" s="12" t="s">
         <v>881</v>
       </c>
       <c r="G622" s="12" t="s">
-        <v>233</v>
+        <v>882</v>
       </c>
       <c r="H622" s="8" t="s">
         <v>842</v>
@@ -23189,7 +23168,7 @@
     </row>
     <row r="623" spans="1:12">
       <c r="A623" s="12">
-        <v>33362</v>
+        <v>33289</v>
       </c>
       <c r="B623" s="12" t="s">
         <v>838</v>
@@ -23198,29 +23177,30 @@
         <v>868</v>
       </c>
       <c r="D623" s="12" t="s">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="E623" s="12" t="s">
-        <v>1049</v>
+        <v>446</v>
       </c>
       <c r="F623" s="12" t="s">
-        <v>881</v>
+        <v>855</v>
       </c>
       <c r="G623" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="H623" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="H623" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="I623" s="8" t="s">
+      <c r="I623" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J623" s="8"/>
-      <c r="K623" s="8"/>
+      <c r="J623" s="13"/>
+      <c r="K623" s="13"/>
+      <c r="L623" s="1"/>
     </row>
     <row r="624" spans="1:12">
       <c r="A624" s="12">
-        <v>33218</v>
+        <v>33167</v>
       </c>
       <c r="B624" s="12" t="s">
         <v>838</v>
@@ -23229,16 +23209,16 @@
         <v>868</v>
       </c>
       <c r="D624" s="12" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="E624" s="12" t="s">
-        <v>1051</v>
+        <v>508</v>
       </c>
       <c r="F624" s="12" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="G624" s="12" t="s">
-        <v>233</v>
+        <v>847</v>
       </c>
       <c r="H624" s="8" t="s">
         <v>842</v>
@@ -23251,7 +23231,7 @@
     </row>
     <row r="625" spans="1:12">
       <c r="A625" s="12">
-        <v>709835</v>
+        <v>33664</v>
       </c>
       <c r="B625" s="12" t="s">
         <v>838</v>
@@ -23260,16 +23240,16 @@
         <v>868</v>
       </c>
       <c r="D625" s="12" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="E625" s="12" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="F625" s="12" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="G625" s="12" t="s">
-        <v>985</v>
+        <v>878</v>
       </c>
       <c r="H625" s="13" t="s">
         <v>842</v>
@@ -23283,7 +23263,7 @@
     </row>
     <row r="626" spans="1:12">
       <c r="A626" s="11">
-        <v>932239</v>
+        <v>911090</v>
       </c>
       <c r="B626" s="11" t="s">
         <v>838</v>
@@ -23292,30 +23272,29 @@
         <v>868</v>
       </c>
       <c r="D626" s="11" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="E626" s="11" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="F626" s="11" t="s">
         <v>842</v>
       </c>
       <c r="G626" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H626" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H626" s="7" t="s">
         <v>842</v>
       </c>
-      <c r="I626" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="J626" s="13"/>
-      <c r="K626" s="13"/>
-      <c r="L626" s="1"/>
+      <c r="I626" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J626" s="8"/>
+      <c r="K626" s="8"/>
     </row>
     <row r="627" spans="1:12">
       <c r="A627" s="12">
-        <v>33513</v>
+        <v>32634</v>
       </c>
       <c r="B627" s="12" t="s">
         <v>838</v>
@@ -23324,16 +23303,16 @@
         <v>868</v>
       </c>
       <c r="D627" s="12" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="E627" s="12" t="s">
-        <v>530</v>
+        <v>429</v>
       </c>
       <c r="F627" s="12" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="G627" s="12" t="s">
-        <v>882</v>
+        <v>847</v>
       </c>
       <c r="H627" s="8" t="s">
         <v>842</v>
@@ -23346,7 +23325,7 @@
     </row>
     <row r="628" spans="1:12">
       <c r="A628" s="12">
-        <v>33289</v>
+        <v>985060</v>
       </c>
       <c r="B628" s="12" t="s">
         <v>838</v>
@@ -23355,30 +23334,29 @@
         <v>868</v>
       </c>
       <c r="D628" s="12" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="E628" s="12" t="s">
-        <v>446</v>
+        <v>85</v>
       </c>
       <c r="F628" s="12" t="s">
-        <v>855</v>
+        <v>874</v>
       </c>
       <c r="G628" s="12" t="s">
-        <v>871</v>
-      </c>
-      <c r="H628" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="H628" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="I628" s="13" t="s">
+      <c r="I628" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="J628" s="13"/>
-      <c r="K628" s="13"/>
-      <c r="L628" s="1"/>
+      <c r="J628" s="8"/>
+      <c r="K628" s="8"/>
     </row>
     <row r="629" spans="1:12">
       <c r="A629" s="12">
-        <v>33167</v>
+        <v>32684</v>
       </c>
       <c r="B629" s="12" t="s">
         <v>838</v>
@@ -23387,29 +23365,30 @@
         <v>868</v>
       </c>
       <c r="D629" s="12" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="E629" s="12" t="s">
         <v>508</v>
       </c>
       <c r="F629" s="12" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="G629" s="12" t="s">
-        <v>847</v>
-      </c>
-      <c r="H629" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="H629" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="I629" s="8" t="s">
+      <c r="I629" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J629" s="8"/>
-      <c r="K629" s="8"/>
-    </row>
-    <row r="630" spans="1:12">
+      <c r="J629" s="13"/>
+      <c r="K629" s="13"/>
+      <c r="L629" s="1"/>
+    </row>
+    <row r="630" spans="1:12" s="2" customFormat="1">
       <c r="A630" s="12">
-        <v>33664</v>
+        <v>33541</v>
       </c>
       <c r="B630" s="12" t="s">
         <v>838</v>
@@ -23418,61 +23397,62 @@
         <v>868</v>
       </c>
       <c r="D630" s="12" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="E630" s="12" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="F630" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="G630" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="H630" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="I630" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="J630" s="8"/>
+      <c r="K630" s="8"/>
+      <c r="L630"/>
+    </row>
+    <row r="631" spans="1:12">
+      <c r="A631" s="12">
+        <v>709722</v>
+      </c>
+      <c r="B631" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="C631" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="D631" s="12" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E631" s="12" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F631" s="12" t="s">
         <v>855</v>
       </c>
-      <c r="G630" s="12" t="s">
-        <v>878</v>
-      </c>
-      <c r="H630" s="13" t="s">
+      <c r="G631" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="H631" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="I630" s="13" t="s">
+      <c r="I631" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J630" s="13"/>
-      <c r="K630" s="13"/>
-      <c r="L630" s="1"/>
-    </row>
-    <row r="631" spans="1:12">
-      <c r="A631" s="11">
-        <v>911090</v>
-      </c>
-      <c r="B631" s="11" t="s">
-        <v>838</v>
-      </c>
-      <c r="C631" s="11" t="s">
-        <v>868</v>
-      </c>
-      <c r="D631" s="11" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E631" s="11" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F631" s="11" t="s">
-        <v>842</v>
-      </c>
-      <c r="G631" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="H631" s="7" t="s">
-        <v>842</v>
-      </c>
-      <c r="I631" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J631" s="8"/>
-      <c r="K631" s="8"/>
+      <c r="J631" s="13"/>
+      <c r="K631" s="13"/>
+      <c r="L631" s="1"/>
     </row>
     <row r="632" spans="1:12">
       <c r="A632" s="12">
-        <v>32634</v>
+        <v>33646</v>
       </c>
       <c r="B632" s="12" t="s">
         <v>838</v>
@@ -23481,29 +23461,30 @@
         <v>868</v>
       </c>
       <c r="D632" s="12" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="E632" s="12" t="s">
-        <v>429</v>
+        <v>992</v>
       </c>
       <c r="F632" s="12" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="G632" s="12" t="s">
-        <v>847</v>
-      </c>
-      <c r="H632" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="H632" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="I632" s="8" t="s">
+      <c r="I632" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J632" s="8"/>
-      <c r="K632" s="8"/>
-    </row>
-    <row r="633" spans="1:12">
+      <c r="J632" s="13"/>
+      <c r="K632" s="13"/>
+      <c r="L632" s="1"/>
+    </row>
+    <row r="633" spans="1:12" s="2" customFormat="1">
       <c r="A633" s="12">
-        <v>985060</v>
+        <v>33236</v>
       </c>
       <c r="B633" s="12" t="s">
         <v>838</v>
@@ -23512,293 +23493,285 @@
         <v>868</v>
       </c>
       <c r="D633" s="12" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="E633" s="12" t="s">
-        <v>85</v>
+        <v>429</v>
       </c>
       <c r="F633" s="12" t="s">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="G633" s="12" t="s">
         <v>847</v>
       </c>
-      <c r="H633" s="8" t="s">
+      <c r="H633" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="I633" s="8" t="s">
+      <c r="I633" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J633" s="8"/>
-      <c r="K633" s="8"/>
-    </row>
-    <row r="634" spans="1:12">
-      <c r="A634" s="12">
-        <v>32684</v>
-      </c>
-      <c r="B634" s="12" t="s">
+      <c r="J633" s="13"/>
+      <c r="K633" s="13"/>
+      <c r="L633" s="1"/>
+    </row>
+    <row r="634" spans="1:12" s="2" customFormat="1">
+      <c r="A634" s="26">
+        <v>33299</v>
+      </c>
+      <c r="B634" s="26" t="s">
         <v>838</v>
       </c>
-      <c r="C634" s="12" t="s">
-        <v>868</v>
-      </c>
-      <c r="D634" s="12" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E634" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="F634" s="12" t="s">
-        <v>865</v>
-      </c>
-      <c r="G634" s="12" t="s">
-        <v>865</v>
-      </c>
-      <c r="H634" s="13" t="s">
+      <c r="C634" s="26" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D634" s="26" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E634" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F634" s="26" t="s">
+        <v>874</v>
+      </c>
+      <c r="G634" s="26" t="s">
+        <v>847</v>
+      </c>
+      <c r="H634" s="20" t="s">
         <v>842</v>
       </c>
-      <c r="I634" s="13" t="s">
+      <c r="I634" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="J634" s="13"/>
-      <c r="K634" s="13"/>
-      <c r="L634" s="1"/>
-    </row>
-    <row r="635" spans="1:12" s="2" customFormat="1">
-      <c r="A635" s="12">
-        <v>33541</v>
-      </c>
-      <c r="B635" s="12" t="s">
+      <c r="J634" s="20"/>
+      <c r="K634" s="20"/>
+      <c r="L634"/>
+    </row>
+    <row r="635" spans="1:12">
+      <c r="A635" s="26">
+        <v>922741</v>
+      </c>
+      <c r="B635" s="26" t="s">
         <v>838</v>
       </c>
-      <c r="C635" s="12" t="s">
-        <v>868</v>
-      </c>
-      <c r="D635" s="12" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E635" s="12" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F635" s="12" t="s">
+      <c r="C635" s="26" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D635" s="26" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E635" s="26" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F635" s="26" t="s">
         <v>874</v>
       </c>
-      <c r="G635" s="12" t="s">
+      <c r="G635" s="26" t="s">
         <v>847</v>
       </c>
-      <c r="H635" s="8" t="s">
+      <c r="H635" s="20" t="s">
         <v>842</v>
       </c>
-      <c r="I635" s="8" t="s">
+      <c r="I635" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="J635" s="8"/>
-      <c r="K635" s="8"/>
-      <c r="L635"/>
+      <c r="J635" s="20"/>
+      <c r="K635" s="20"/>
     </row>
     <row r="636" spans="1:12">
       <c r="A636" s="12">
-        <v>709722</v>
+        <v>972953</v>
       </c>
       <c r="B636" s="12" t="s">
         <v>838</v>
       </c>
       <c r="C636" s="12" t="s">
-        <v>868</v>
+        <v>1070</v>
       </c>
       <c r="D636" s="12" t="s">
-        <v>1068</v>
+        <v>1073</v>
       </c>
       <c r="E636" s="12" t="s">
-        <v>1069</v>
+        <v>406</v>
       </c>
       <c r="F636" s="12" t="s">
-        <v>855</v>
+        <v>874</v>
       </c>
       <c r="G636" s="12" t="s">
-        <v>871</v>
-      </c>
-      <c r="H636" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="H636" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="I636" s="13" t="s">
+      <c r="I636" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="J636" s="13"/>
-      <c r="K636" s="13"/>
-      <c r="L636" s="1"/>
+      <c r="J636" s="8"/>
+      <c r="K636" s="8"/>
     </row>
     <row r="637" spans="1:12">
-      <c r="A637" s="12">
-        <v>33646</v>
-      </c>
-      <c r="B637" s="12" t="s">
-        <v>838</v>
-      </c>
-      <c r="C637" s="12" t="s">
-        <v>868</v>
+      <c r="A637" s="12"/>
+      <c r="B637" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C637" s="16" t="s">
+        <v>745</v>
       </c>
       <c r="D637" s="12" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E637" s="12" t="s">
-        <v>993</v>
+        <v>719</v>
       </c>
       <c r="F637" s="12" t="s">
-        <v>865</v>
+        <v>748</v>
       </c>
       <c r="G637" s="12" t="s">
-        <v>865</v>
-      </c>
-      <c r="H637" s="13" t="s">
-        <v>842</v>
-      </c>
-      <c r="I637" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="J637" s="13"/>
-      <c r="K637" s="13"/>
-      <c r="L637" s="1"/>
-    </row>
-    <row r="638" spans="1:12" s="2" customFormat="1">
+        <v>749</v>
+      </c>
+      <c r="H637" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I637" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="J637" s="8"/>
+      <c r="K637" s="8"/>
+    </row>
+    <row r="638" spans="1:12">
       <c r="A638" s="12">
-        <v>33236</v>
-      </c>
-      <c r="B638" s="12" t="s">
-        <v>838</v>
-      </c>
-      <c r="C638" s="12" t="s">
-        <v>868</v>
+        <v>993613</v>
+      </c>
+      <c r="B638" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C638" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="D638" s="12" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="E638" s="12" t="s">
-        <v>429</v>
+        <v>71</v>
       </c>
       <c r="F638" s="12" t="s">
-        <v>855</v>
+        <v>112</v>
       </c>
       <c r="G638" s="12" t="s">
-        <v>847</v>
-      </c>
-      <c r="H638" s="13" t="s">
-        <v>842</v>
-      </c>
-      <c r="I638" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="J638" s="13"/>
-      <c r="K638" s="13"/>
-      <c r="L638" s="1"/>
-    </row>
-    <row r="639" spans="1:12" s="2" customFormat="1">
-      <c r="A639" s="26">
-        <v>33299</v>
-      </c>
-      <c r="B639" s="26" t="s">
-        <v>838</v>
-      </c>
-      <c r="C639" s="26" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D639" s="26" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E639" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="F639" s="26" t="s">
-        <v>874</v>
-      </c>
-      <c r="G639" s="26" t="s">
-        <v>847</v>
-      </c>
-      <c r="H639" s="20" t="s">
-        <v>842</v>
-      </c>
-      <c r="I639" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="J639" s="20"/>
-      <c r="K639" s="20"/>
-      <c r="L639"/>
+        <v>112</v>
+      </c>
+      <c r="H638" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I638" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J638" s="8"/>
+      <c r="K638" s="8"/>
+    </row>
+    <row r="639" spans="1:12">
+      <c r="A639" s="12">
+        <v>993621</v>
+      </c>
+      <c r="B639" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C639" s="16" t="s">
+        <v>745</v>
+      </c>
+      <c r="D639" s="12" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E639" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="F639" s="12" t="s">
+        <v>748</v>
+      </c>
+      <c r="G639" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="H639" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I639" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="J639" s="8"/>
+      <c r="K639" s="8"/>
     </row>
     <row r="640" spans="1:12">
-      <c r="A640" s="26">
-        <v>922741</v>
-      </c>
-      <c r="B640" s="26" t="s">
-        <v>838</v>
-      </c>
-      <c r="C640" s="26" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D640" s="26" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E640" s="26" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F640" s="26" t="s">
-        <v>874</v>
-      </c>
-      <c r="G640" s="26" t="s">
-        <v>847</v>
-      </c>
-      <c r="H640" s="20" t="s">
-        <v>842</v>
-      </c>
-      <c r="I640" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="J640" s="20"/>
-      <c r="K640" s="20"/>
+      <c r="A640" s="12">
+        <v>993626</v>
+      </c>
+      <c r="B640" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C640" s="16" t="s">
+        <v>658</v>
+      </c>
+      <c r="D640" s="12" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E640" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F640" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="G640" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="H640" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I640" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="J640" s="8"/>
+      <c r="K640" s="8"/>
     </row>
     <row r="641" spans="1:11">
-      <c r="A641" s="12">
-        <v>972953</v>
-      </c>
-      <c r="B641" s="12" t="s">
-        <v>838</v>
-      </c>
-      <c r="C641" s="12" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D641" s="12" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E641" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="F641" s="12" t="s">
-        <v>874</v>
-      </c>
-      <c r="G641" s="12" t="s">
-        <v>847</v>
-      </c>
-      <c r="H641" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="I641" s="8" t="s">
-        <v>234</v>
+      <c r="A641" s="12"/>
+      <c r="B641" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="C641" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="D641" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E641" s="7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F641" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="G641" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="H641" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="I641" s="7" t="s">
+        <v>539</v>
       </c>
       <c r="J641" s="8"/>
       <c r="K641" s="8"/>
     </row>
     <row r="642" spans="1:11">
       <c r="A642" s="12"/>
-      <c r="B642" s="16" t="s">
+      <c r="B642" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C642" s="16" t="s">
         <v>745</v>
       </c>
       <c r="D642" s="12" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="E642" s="12" t="s">
-        <v>719</v>
+        <v>191</v>
       </c>
       <c r="F642" s="12" t="s">
         <v>748</v>
@@ -23816,93 +23789,87 @@
       <c r="K642" s="8"/>
     </row>
     <row r="643" spans="1:11">
-      <c r="A643" s="12">
-        <v>993613</v>
-      </c>
-      <c r="B643" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C643" s="11" t="s">
-        <v>87</v>
+      <c r="A643" s="12"/>
+      <c r="B643" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="C643" s="12" t="s">
+        <v>557</v>
       </c>
       <c r="D643" s="12" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="E643" s="12" t="s">
-        <v>71</v>
+        <v>1082</v>
       </c>
       <c r="F643" s="12" t="s">
-        <v>112</v>
+        <v>560</v>
       </c>
       <c r="G643" s="12" t="s">
-        <v>112</v>
+        <v>561</v>
       </c>
       <c r="H643" s="8" t="s">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="I643" s="8" t="s">
-        <v>31</v>
+        <v>539</v>
       </c>
       <c r="J643" s="8"/>
       <c r="K643" s="8"/>
     </row>
     <row r="644" spans="1:11">
-      <c r="A644" s="12">
-        <v>993621</v>
-      </c>
-      <c r="B644" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C644" s="16" t="s">
-        <v>745</v>
-      </c>
-      <c r="D644" s="12" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E644" s="12" t="s">
-        <v>572</v>
-      </c>
-      <c r="F644" s="12" t="s">
-        <v>748</v>
-      </c>
-      <c r="G644" s="12" t="s">
-        <v>749</v>
-      </c>
-      <c r="H644" s="8" t="s">
+      <c r="A644" s="12"/>
+      <c r="B644" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C644" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="D644" s="11" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E644" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F644" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="G644" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="H644" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="I644" s="8" t="s">
+      <c r="I644" s="7" t="s">
         <v>750</v>
       </c>
       <c r="J644" s="8"/>
       <c r="K644" s="8"/>
     </row>
     <row r="645" spans="1:11">
-      <c r="A645" s="12">
-        <v>993626</v>
-      </c>
+      <c r="A645" s="12"/>
       <c r="B645" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C645" s="16" t="s">
         <v>658</v>
       </c>
-      <c r="D645" s="12" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E645" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F645" s="12" t="s">
+      <c r="D645" s="16" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E645" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="F645" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="G645" s="12" t="s">
+      <c r="G645" s="11" t="s">
         <v>661</v>
       </c>
-      <c r="H645" s="8" t="s">
+      <c r="H645" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="I645" s="8" t="s">
+      <c r="I645" s="7" t="s">
         <v>662</v>
       </c>
       <c r="J645" s="8"/>
@@ -23910,146 +23877,66 @@
     </row>
     <row r="646" spans="1:11">
       <c r="A646" s="12"/>
-      <c r="B646" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="C646" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="D646" s="7" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E646" s="7" t="s">
-        <v>1083</v>
-      </c>
-      <c r="F646" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="G646" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="H646" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="I646" s="7" t="s">
-        <v>539</v>
-      </c>
+      <c r="B646" s="12"/>
+      <c r="C646" s="12"/>
+      <c r="D646" s="12"/>
+      <c r="E646" s="12"/>
+      <c r="F646" s="12"/>
+      <c r="G646" s="12"/>
+      <c r="H646" s="8"/>
+      <c r="I646" s="8"/>
       <c r="J646" s="8"/>
       <c r="K646" s="8"/>
     </row>
     <row r="647" spans="1:11">
       <c r="A647" s="12"/>
-      <c r="B647" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C647" s="16" t="s">
-        <v>745</v>
-      </c>
-      <c r="D647" s="12" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E647" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="F647" s="12" t="s">
-        <v>748</v>
-      </c>
-      <c r="G647" s="12" t="s">
-        <v>749</v>
-      </c>
-      <c r="H647" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="I647" s="8" t="s">
-        <v>750</v>
-      </c>
+      <c r="B647" s="12"/>
+      <c r="C647" s="12"/>
+      <c r="D647" s="12"/>
+      <c r="E647" s="12"/>
+      <c r="F647" s="12"/>
+      <c r="G647" s="12"/>
+      <c r="H647" s="8"/>
+      <c r="I647" s="8"/>
       <c r="J647" s="8"/>
       <c r="K647" s="8"/>
     </row>
     <row r="648" spans="1:11">
       <c r="A648" s="12"/>
-      <c r="B648" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="C648" s="12" t="s">
-        <v>557</v>
-      </c>
-      <c r="D648" s="12" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E648" s="12" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F648" s="12" t="s">
-        <v>560</v>
-      </c>
-      <c r="G648" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="H648" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="I648" s="8" t="s">
-        <v>539</v>
-      </c>
+      <c r="B648" s="12"/>
+      <c r="C648" s="12"/>
+      <c r="D648" s="12"/>
+      <c r="E648" s="12"/>
+      <c r="F648" s="12"/>
+      <c r="G648" s="12"/>
+      <c r="H648" s="8"/>
+      <c r="I648" s="8"/>
       <c r="J648" s="8"/>
       <c r="K648" s="8"/>
     </row>
     <row r="649" spans="1:11">
       <c r="A649" s="12"/>
-      <c r="B649" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C649" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="D649" s="11" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E649" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F649" s="11" t="s">
-        <v>813</v>
-      </c>
-      <c r="G649" s="11" t="s">
-        <v>814</v>
-      </c>
-      <c r="H649" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="I649" s="7" t="s">
-        <v>750</v>
-      </c>
+      <c r="B649" s="12"/>
+      <c r="C649" s="12"/>
+      <c r="D649" s="12"/>
+      <c r="E649" s="12"/>
+      <c r="F649" s="12"/>
+      <c r="G649" s="12"/>
+      <c r="H649" s="8"/>
+      <c r="I649" s="8"/>
       <c r="J649" s="8"/>
       <c r="K649" s="8"/>
     </row>
     <row r="650" spans="1:11">
       <c r="A650" s="12"/>
-      <c r="B650" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C650" s="16" t="s">
-        <v>658</v>
-      </c>
-      <c r="D650" s="16" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E650" s="16" t="s">
-        <v>623</v>
-      </c>
-      <c r="F650" s="11" t="s">
-        <v>660</v>
-      </c>
-      <c r="G650" s="11" t="s">
-        <v>661</v>
-      </c>
-      <c r="H650" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="I650" s="7" t="s">
-        <v>662</v>
-      </c>
+      <c r="B650" s="12"/>
+      <c r="C650" s="12"/>
+      <c r="D650" s="12"/>
+      <c r="E650" s="12"/>
+      <c r="F650" s="12"/>
+      <c r="G650" s="12"/>
+      <c r="H650" s="8"/>
+      <c r="I650" s="8"/>
       <c r="J650" s="8"/>
       <c r="K650" s="8"/>
     </row>
@@ -24093,71 +23980,51 @@
       <c r="K653" s="8"/>
     </row>
     <row r="654" spans="1:11">
-      <c r="A654" s="12"/>
-      <c r="B654" s="12"/>
-      <c r="C654" s="12"/>
-      <c r="D654" s="12"/>
-      <c r="E654" s="12"/>
-      <c r="F654" s="12"/>
-      <c r="G654" s="12"/>
-      <c r="H654" s="8"/>
-      <c r="I654" s="8"/>
-      <c r="J654" s="8"/>
-      <c r="K654" s="8"/>
+      <c r="A654" s="2"/>
+      <c r="B654" s="2"/>
+      <c r="C654" s="2"/>
+      <c r="D654" s="2"/>
+      <c r="E654" s="2"/>
+      <c r="F654" s="2"/>
+      <c r="G654" s="2"/>
     </row>
     <row r="655" spans="1:11">
-      <c r="A655" s="12"/>
-      <c r="B655" s="12"/>
-      <c r="C655" s="12"/>
-      <c r="D655" s="12"/>
-      <c r="E655" s="12"/>
-      <c r="F655" s="12"/>
-      <c r="G655" s="12"/>
-      <c r="H655" s="8"/>
-      <c r="I655" s="8"/>
-      <c r="J655" s="8"/>
-      <c r="K655" s="8"/>
+      <c r="A655" s="2"/>
+      <c r="B655" s="2"/>
+      <c r="C655" s="2"/>
+      <c r="D655" s="2"/>
+      <c r="E655" s="2"/>
+      <c r="F655" s="2"/>
+      <c r="G655" s="2"/>
     </row>
     <row r="656" spans="1:11">
-      <c r="A656" s="12"/>
-      <c r="B656" s="12"/>
-      <c r="C656" s="12"/>
-      <c r="D656" s="12"/>
-      <c r="E656" s="12"/>
-      <c r="F656" s="12"/>
-      <c r="G656" s="12"/>
-      <c r="H656" s="8"/>
-      <c r="I656" s="8"/>
-      <c r="J656" s="8"/>
-      <c r="K656" s="8"/>
-    </row>
-    <row r="657" spans="1:11">
-      <c r="A657" s="12"/>
-      <c r="B657" s="12"/>
-      <c r="C657" s="12"/>
-      <c r="D657" s="12"/>
-      <c r="E657" s="12"/>
-      <c r="F657" s="12"/>
-      <c r="G657" s="12"/>
-      <c r="H657" s="8"/>
-      <c r="I657" s="8"/>
-      <c r="J657" s="8"/>
-      <c r="K657" s="8"/>
-    </row>
-    <row r="658" spans="1:11">
-      <c r="A658" s="12"/>
-      <c r="B658" s="12"/>
-      <c r="C658" s="12"/>
-      <c r="D658" s="12"/>
-      <c r="E658" s="12"/>
-      <c r="F658" s="12"/>
-      <c r="G658" s="12"/>
-      <c r="H658" s="8"/>
-      <c r="I658" s="8"/>
-      <c r="J658" s="8"/>
-      <c r="K658" s="8"/>
-    </row>
-    <row r="659" spans="1:11">
+      <c r="A656" s="2"/>
+      <c r="B656" s="2"/>
+      <c r="C656" s="2"/>
+      <c r="D656" s="2"/>
+      <c r="E656" s="2"/>
+      <c r="F656" s="2"/>
+      <c r="G656" s="2"/>
+    </row>
+    <row r="657" spans="1:7">
+      <c r="A657" s="2"/>
+      <c r="B657" s="2"/>
+      <c r="C657" s="2"/>
+      <c r="D657" s="2"/>
+      <c r="E657" s="2"/>
+      <c r="F657" s="2"/>
+      <c r="G657" s="2"/>
+    </row>
+    <row r="658" spans="1:7">
+      <c r="A658" s="2"/>
+      <c r="B658" s="2"/>
+      <c r="C658" s="2"/>
+      <c r="D658" s="2"/>
+      <c r="E658" s="2"/>
+      <c r="F658" s="2"/>
+      <c r="G658" s="2"/>
+    </row>
+    <row r="659" spans="1:7">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -24166,7 +24033,7 @@
       <c r="F659" s="2"/>
       <c r="G659" s="2"/>
     </row>
-    <row r="660" spans="1:11">
+    <row r="660" spans="1:7">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -24175,7 +24042,7 @@
       <c r="F660" s="2"/>
       <c r="G660" s="2"/>
     </row>
-    <row r="661" spans="1:11">
+    <row r="661" spans="1:7">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -24184,7 +24051,7 @@
       <c r="F661" s="2"/>
       <c r="G661" s="2"/>
     </row>
-    <row r="662" spans="1:11">
+    <row r="662" spans="1:7">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -24193,7 +24060,7 @@
       <c r="F662" s="2"/>
       <c r="G662" s="2"/>
     </row>
-    <row r="663" spans="1:11">
+    <row r="663" spans="1:7">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -24202,7 +24069,7 @@
       <c r="F663" s="2"/>
       <c r="G663" s="2"/>
     </row>
-    <row r="664" spans="1:11">
+    <row r="664" spans="1:7">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -24211,7 +24078,7 @@
       <c r="F664" s="2"/>
       <c r="G664" s="2"/>
     </row>
-    <row r="665" spans="1:11">
+    <row r="665" spans="1:7">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -24220,7 +24087,7 @@
       <c r="F665" s="2"/>
       <c r="G665" s="2"/>
     </row>
-    <row r="666" spans="1:11">
+    <row r="666" spans="1:7">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -24229,7 +24096,7 @@
       <c r="F666" s="2"/>
       <c r="G666" s="2"/>
     </row>
-    <row r="667" spans="1:11">
+    <row r="667" spans="1:7">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -24238,7 +24105,7 @@
       <c r="F667" s="2"/>
       <c r="G667" s="2"/>
     </row>
-    <row r="668" spans="1:11">
+    <row r="668" spans="1:7">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -24247,7 +24114,7 @@
       <c r="F668" s="2"/>
       <c r="G668" s="2"/>
     </row>
-    <row r="669" spans="1:11">
+    <row r="669" spans="1:7">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -24256,7 +24123,7 @@
       <c r="F669" s="2"/>
       <c r="G669" s="2"/>
     </row>
-    <row r="670" spans="1:11">
+    <row r="670" spans="1:7">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -24265,7 +24132,7 @@
       <c r="F670" s="2"/>
       <c r="G670" s="2"/>
     </row>
-    <row r="671" spans="1:11">
+    <row r="671" spans="1:7">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -24274,7 +24141,7 @@
       <c r="F671" s="2"/>
       <c r="G671" s="2"/>
     </row>
-    <row r="672" spans="1:11">
+    <row r="672" spans="1:7">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -25417,55 +25284,10 @@
       <c r="F798" s="2"/>
       <c r="G798" s="2"/>
     </row>
-    <row r="799" spans="1:7">
-      <c r="A799" s="2"/>
-      <c r="B799" s="2"/>
-      <c r="C799" s="2"/>
-      <c r="D799" s="2"/>
-      <c r="E799" s="2"/>
-      <c r="F799" s="2"/>
-      <c r="G799" s="2"/>
-    </row>
-    <row r="800" spans="1:7">
-      <c r="A800" s="2"/>
-      <c r="B800" s="2"/>
-      <c r="C800" s="2"/>
-      <c r="D800" s="2"/>
-      <c r="E800" s="2"/>
-      <c r="F800" s="2"/>
-      <c r="G800" s="2"/>
-    </row>
-    <row r="801" spans="1:7">
-      <c r="A801" s="2"/>
-      <c r="B801" s="2"/>
-      <c r="C801" s="2"/>
-      <c r="D801" s="2"/>
-      <c r="E801" s="2"/>
-      <c r="F801" s="2"/>
-      <c r="G801" s="2"/>
-    </row>
-    <row r="802" spans="1:7">
-      <c r="A802" s="2"/>
-      <c r="B802" s="2"/>
-      <c r="C802" s="2"/>
-      <c r="D802" s="2"/>
-      <c r="E802" s="2"/>
-      <c r="F802" s="2"/>
-      <c r="G802" s="2"/>
-    </row>
-    <row r="803" spans="1:7">
-      <c r="A803" s="2"/>
-      <c r="B803" s="2"/>
-      <c r="C803" s="2"/>
-      <c r="D803" s="2"/>
-      <c r="E803" s="2"/>
-      <c r="F803" s="2"/>
-      <c r="G803" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:R650" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState ref="A2:R641">
-      <sortCondition ref="H1:H641"/>
+  <autoFilter ref="A1:R645" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState ref="A2:R636">
+      <sortCondition ref="H1:H636"/>
     </sortState>
   </autoFilter>
   <customSheetViews>

--- a/Symfony/web/uploads/FichierHierarchieRH/HierarchieRH.xlsx
+++ b/Symfony/web/uploads/FichierHierarchieRH/HierarchieRH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://noxingenierie-my.sharepoint.com/personal/l_morisseau_groupe-nox_com/Documents/Partagé avec tout le monde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="34BA23330D5BADDCE0731695EA14A39035646E17" xr6:coauthVersionLast="17" xr6:coauthVersionMax="17" xr10:uidLastSave="{B54EB9D4-951C-430A-9EC2-28B1010E584D}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="34BA23330D5BADDCE0731695EA14A39035646E17" xr6:coauthVersionLast="17" xr6:coauthVersionMax="17" xr10:uidLastSave="{9217C8A0-2415-4AB7-A39D-AFBD914C7466}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5157" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5158" uniqueCount="1086">
   <si>
     <t>Matricule</t>
   </si>
@@ -2891,6 +2891,9 @@
   </si>
   <si>
     <t>FIZES</t>
+  </si>
+  <si>
+    <t>SORTIE LE</t>
   </si>
   <si>
     <t>FONTAINE</t>
@@ -3754,8 +3757,8 @@
   <dimension ref="A1:L798"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="C473" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F486" sqref="F486"/>
+      <pane ySplit="1" topLeftCell="C646" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -20520,7 +20523,7 @@
       <c r="G538" s="12" t="s">
         <v>878</v>
       </c>
-      <c r="H538" s="13" t="s">
+      <c r="H538" s="8" t="s">
         <v>842</v>
       </c>
       <c r="I538" s="13" t="s">
@@ -20871,7 +20874,9 @@
         <v>234</v>
       </c>
       <c r="J549" s="8"/>
-      <c r="K549" s="8"/>
+      <c r="K549" s="8" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="550" spans="1:12">
       <c r="A550" s="12">
@@ -20884,7 +20889,7 @@
         <v>868</v>
       </c>
       <c r="D550" s="12" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E550" s="12" t="s">
         <v>73</v>
@@ -20915,10 +20920,10 @@
         <v>868</v>
       </c>
       <c r="D551" s="12" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E551" s="12" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="F551" s="12" t="s">
         <v>881</v>
@@ -20946,7 +20951,7 @@
         <v>868</v>
       </c>
       <c r="D552" s="12" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E552" s="12" t="s">
         <v>44</v>
@@ -20978,10 +20983,10 @@
         <v>868</v>
       </c>
       <c r="D553" s="12" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E553" s="12" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F553" s="12" t="s">
         <v>840</v>
@@ -21012,7 +21017,7 @@
         <v>383</v>
       </c>
       <c r="E554" s="12" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="F554" s="12" t="s">
         <v>881</v>
@@ -21040,7 +21045,7 @@
         <v>868</v>
       </c>
       <c r="D555" s="12" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E555" s="12" t="s">
         <v>758</v>
@@ -21071,7 +21076,7 @@
         <v>868</v>
       </c>
       <c r="D556" s="11" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E556" s="11" t="s">
         <v>800</v>
@@ -21102,10 +21107,10 @@
         <v>868</v>
       </c>
       <c r="D557" s="12" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="E557" s="12" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="F557" s="12" t="s">
         <v>874</v>
@@ -21133,10 +21138,10 @@
         <v>868</v>
       </c>
       <c r="D558" s="12" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E558" s="12" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="F558" s="12" t="s">
         <v>874</v>
@@ -21164,7 +21169,7 @@
         <v>868</v>
       </c>
       <c r="D559" s="12" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E559" s="12" t="s">
         <v>47</v>
@@ -21196,13 +21201,13 @@
         <v>868</v>
       </c>
       <c r="D560" s="11" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E560" s="11" t="s">
         <v>77</v>
       </c>
       <c r="F560" s="11" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="G560" s="11" t="s">
         <v>233</v>
@@ -21227,7 +21232,7 @@
         <v>868</v>
       </c>
       <c r="D561" s="12" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E561" s="12" t="s">
         <v>65</v>
@@ -21258,10 +21263,10 @@
         <v>868</v>
       </c>
       <c r="D562" s="12" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="E562" s="12" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F562" s="12" t="s">
         <v>855</v>
@@ -21290,7 +21295,7 @@
         <v>868</v>
       </c>
       <c r="D563" s="12" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E563" s="12" t="s">
         <v>143</v>
@@ -21322,10 +21327,10 @@
         <v>868</v>
       </c>
       <c r="D564" s="11" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E564" s="11" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F564" s="11" t="s">
         <v>842</v>
@@ -21354,10 +21359,10 @@
         <v>868</v>
       </c>
       <c r="D565" s="12" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E565" s="12" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F565" s="12" t="s">
         <v>842</v>
@@ -21369,7 +21374,7 @@
         <v>842</v>
       </c>
       <c r="I565" s="13" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="J565" s="13"/>
       <c r="K565" s="13"/>
@@ -21386,10 +21391,10 @@
         <v>868</v>
       </c>
       <c r="D566" s="11" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E566" s="11" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F566" s="11" t="s">
         <v>842</v>
@@ -21417,7 +21422,7 @@
         <v>868</v>
       </c>
       <c r="D567" s="12" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E567" s="12" t="s">
         <v>101</v>
@@ -21449,10 +21454,10 @@
         <v>868</v>
       </c>
       <c r="D568" s="12" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E568" s="12" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F568" s="12" t="s">
         <v>881</v>
@@ -21480,7 +21485,7 @@
         <v>868</v>
       </c>
       <c r="D569" s="12" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E569" s="12" t="s">
         <v>429</v>
@@ -21512,10 +21517,10 @@
         <v>868</v>
       </c>
       <c r="D570" s="11" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E570" s="11" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F570" s="11" t="s">
         <v>842</v>
@@ -21544,7 +21549,7 @@
         <v>868</v>
       </c>
       <c r="D571" s="12" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E571" s="12" t="s">
         <v>101</v>
@@ -21553,7 +21558,7 @@
         <v>855</v>
       </c>
       <c r="G571" s="12" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H571" s="13" t="s">
         <v>842</v>
@@ -21576,7 +21581,7 @@
         <v>868</v>
       </c>
       <c r="D572" s="12" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E572" s="12" t="s">
         <v>623</v>
@@ -21608,10 +21613,10 @@
         <v>868</v>
       </c>
       <c r="D573" s="12" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E573" s="12" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F573" s="12" t="s">
         <v>874</v>
@@ -21639,7 +21644,7 @@
         <v>868</v>
       </c>
       <c r="D574" s="12" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E574" s="12" t="s">
         <v>612</v>
@@ -21671,10 +21676,10 @@
         <v>868</v>
       </c>
       <c r="D575" s="12" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E575" s="12" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F575" s="12" t="s">
         <v>874</v>
@@ -21702,10 +21707,10 @@
         <v>868</v>
       </c>
       <c r="D576" s="12" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E576" s="12" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="F576" s="12" t="s">
         <v>881</v>
@@ -21733,10 +21738,10 @@
         <v>868</v>
       </c>
       <c r="D577" s="12" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E577" s="12" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="F577" s="12" t="s">
         <v>840</v>
@@ -21764,7 +21769,7 @@
         <v>868</v>
       </c>
       <c r="D578" s="12" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E578" s="12" t="s">
         <v>101</v>
@@ -21796,10 +21801,10 @@
         <v>868</v>
       </c>
       <c r="D579" s="12" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E579" s="12" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="F579" s="12" t="s">
         <v>874</v>
@@ -21827,10 +21832,10 @@
         <v>868</v>
       </c>
       <c r="D580" s="12" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E580" s="12" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F580" s="12" t="s">
         <v>874</v>
@@ -21858,7 +21863,7 @@
         <v>868</v>
       </c>
       <c r="D581" s="12" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E581" s="12" t="s">
         <v>473</v>
@@ -21889,10 +21894,10 @@
         <v>868</v>
       </c>
       <c r="D582" s="12" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E582" s="12" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F582" s="12" t="s">
         <v>855</v>
@@ -21921,7 +21926,7 @@
         <v>868</v>
       </c>
       <c r="D583" s="12" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E583" s="12" t="s">
         <v>105</v>
@@ -21953,10 +21958,10 @@
         <v>868</v>
       </c>
       <c r="D584" s="12" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E584" s="12" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F584" s="12" t="s">
         <v>874</v>
@@ -21984,7 +21989,7 @@
         <v>868</v>
       </c>
       <c r="D585" s="12" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E585" s="12" t="s">
         <v>323</v>
@@ -22015,10 +22020,10 @@
         <v>868</v>
       </c>
       <c r="D586" s="12" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E586" s="12" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F586" s="12" t="s">
         <v>874</v>
@@ -22046,7 +22051,7 @@
         <v>868</v>
       </c>
       <c r="D587" s="12" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E587" s="12" t="s">
         <v>47</v>
@@ -22078,7 +22083,7 @@
         <v>868</v>
       </c>
       <c r="D588" s="12" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E588" s="12" t="s">
         <v>572</v>
@@ -22110,7 +22115,7 @@
         <v>868</v>
       </c>
       <c r="D589" s="12" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E589" s="12" t="s">
         <v>165</v>
@@ -22141,7 +22146,7 @@
         <v>868</v>
       </c>
       <c r="D590" s="12" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="E590" s="12" t="s">
         <v>47</v>
@@ -22172,10 +22177,10 @@
         <v>868</v>
       </c>
       <c r="D591" s="12" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E591" s="12" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="F591" s="12" t="s">
         <v>874</v>
@@ -22203,10 +22208,10 @@
         <v>868</v>
       </c>
       <c r="D592" s="12" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E592" s="12" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="F592" s="12" t="s">
         <v>842</v>
@@ -22235,7 +22240,7 @@
         <v>868</v>
       </c>
       <c r="D593" s="12" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E593" s="12" t="s">
         <v>861</v>
@@ -22299,10 +22304,10 @@
         <v>868</v>
       </c>
       <c r="D595" s="12" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E595" s="12" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F595" s="12" t="s">
         <v>874</v>
@@ -22393,10 +22398,10 @@
         <v>868</v>
       </c>
       <c r="D598" s="12" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="E598" s="12" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="F598" s="12" t="s">
         <v>855</v>
@@ -22425,10 +22430,10 @@
         <v>868</v>
       </c>
       <c r="D599" s="12" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E599" s="12" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="F599" s="12" t="s">
         <v>881</v>
@@ -22456,7 +22461,7 @@
         <v>868</v>
       </c>
       <c r="D600" s="12" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E600" s="12" t="s">
         <v>52</v>
@@ -22488,10 +22493,10 @@
         <v>868</v>
       </c>
       <c r="D601" s="12" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E601" s="12" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="F601" s="12" t="s">
         <v>881</v>
@@ -22519,10 +22524,10 @@
         <v>868</v>
       </c>
       <c r="D602" s="12" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="E602" s="12" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F602" s="12" t="s">
         <v>881</v>
@@ -22559,7 +22564,7 @@
         <v>874</v>
       </c>
       <c r="G603" s="12" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H603" s="8" t="s">
         <v>842</v>
@@ -22581,10 +22586,10 @@
         <v>868</v>
       </c>
       <c r="D604" s="12" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E604" s="12" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F604" s="12" t="s">
         <v>855</v>
@@ -22613,10 +22618,10 @@
         <v>868</v>
       </c>
       <c r="D605" s="12" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E605" s="12" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F605" s="12" t="s">
         <v>855</v>
@@ -22645,7 +22650,7 @@
         <v>868</v>
       </c>
       <c r="D606" s="12" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="E606" s="12" t="s">
         <v>856</v>
@@ -22709,7 +22714,7 @@
         <v>868</v>
       </c>
       <c r="D608" s="12" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="E608" s="12" t="s">
         <v>19</v>
@@ -22740,7 +22745,7 @@
         <v>868</v>
       </c>
       <c r="D609" s="12" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="E609" s="12" t="s">
         <v>570</v>
@@ -22771,10 +22776,10 @@
         <v>868</v>
       </c>
       <c r="D610" s="11" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="E610" s="11" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="F610" s="11" t="s">
         <v>842</v>
@@ -22803,7 +22808,7 @@
         <v>868</v>
       </c>
       <c r="D611" s="12" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="E611" s="12" t="s">
         <v>429</v>
@@ -22834,7 +22839,7 @@
         <v>868</v>
       </c>
       <c r="D612" s="12" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="E612" s="12" t="s">
         <v>73</v>
@@ -22865,10 +22870,10 @@
         <v>868</v>
       </c>
       <c r="D613" s="12" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="E613" s="12" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F613" s="12" t="s">
         <v>874</v>
@@ -22896,7 +22901,7 @@
         <v>868</v>
       </c>
       <c r="D614" s="12" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="E614" s="12" t="s">
         <v>212</v>
@@ -22927,7 +22932,7 @@
         <v>868</v>
       </c>
       <c r="D615" s="12" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="E615" s="12" t="s">
         <v>76</v>
@@ -22958,7 +22963,7 @@
         <v>868</v>
       </c>
       <c r="D616" s="12" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="E616" s="12" t="s">
         <v>257</v>
@@ -22989,7 +22994,7 @@
         <v>868</v>
       </c>
       <c r="D617" s="12" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E617" s="12" t="s">
         <v>355</v>
@@ -23020,10 +23025,10 @@
         <v>868</v>
       </c>
       <c r="D618" s="12" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="E618" s="12" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="F618" s="12" t="s">
         <v>881</v>
@@ -23051,10 +23056,10 @@
         <v>868</v>
       </c>
       <c r="D619" s="12" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="E619" s="12" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="F619" s="12" t="s">
         <v>881</v>
@@ -23082,16 +23087,16 @@
         <v>868</v>
       </c>
       <c r="D620" s="12" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="E620" s="12" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="F620" s="12" t="s">
         <v>865</v>
       </c>
       <c r="G620" s="12" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H620" s="13" t="s">
         <v>842</v>
@@ -23114,10 +23119,10 @@
         <v>868</v>
       </c>
       <c r="D621" s="11" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="E621" s="11" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="F621" s="11" t="s">
         <v>842</v>
@@ -23146,7 +23151,7 @@
         <v>868</v>
       </c>
       <c r="D622" s="12" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="E622" s="12" t="s">
         <v>530</v>
@@ -23177,7 +23182,7 @@
         <v>868</v>
       </c>
       <c r="D623" s="12" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E623" s="12" t="s">
         <v>446</v>
@@ -23209,7 +23214,7 @@
         <v>868</v>
       </c>
       <c r="D624" s="12" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="E624" s="12" t="s">
         <v>508</v>
@@ -23240,10 +23245,10 @@
         <v>868</v>
       </c>
       <c r="D625" s="12" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="E625" s="12" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="F625" s="12" t="s">
         <v>855</v>
@@ -23272,10 +23277,10 @@
         <v>868</v>
       </c>
       <c r="D626" s="11" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="E626" s="11" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="F626" s="11" t="s">
         <v>842</v>
@@ -23303,7 +23308,7 @@
         <v>868</v>
       </c>
       <c r="D627" s="12" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E627" s="12" t="s">
         <v>429</v>
@@ -23334,7 +23339,7 @@
         <v>868</v>
       </c>
       <c r="D628" s="12" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="E628" s="12" t="s">
         <v>85</v>
@@ -23365,7 +23370,7 @@
         <v>868</v>
       </c>
       <c r="D629" s="12" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="E629" s="12" t="s">
         <v>508</v>
@@ -23397,10 +23402,10 @@
         <v>868</v>
       </c>
       <c r="D630" s="12" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E630" s="12" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="F630" s="12" t="s">
         <v>874</v>
@@ -23429,10 +23434,10 @@
         <v>868</v>
       </c>
       <c r="D631" s="12" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="E631" s="12" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="F631" s="12" t="s">
         <v>855</v>
@@ -23461,10 +23466,10 @@
         <v>868</v>
       </c>
       <c r="D632" s="12" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="E632" s="12" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="F632" s="12" t="s">
         <v>865</v>
@@ -23493,7 +23498,7 @@
         <v>868</v>
       </c>
       <c r="D633" s="12" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E633" s="12" t="s">
         <v>429</v>
@@ -23522,10 +23527,10 @@
         <v>838</v>
       </c>
       <c r="C634" s="26" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D634" s="26" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="E634" s="26" t="s">
         <v>131</v>
@@ -23554,13 +23559,13 @@
         <v>838</v>
       </c>
       <c r="C635" s="26" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D635" s="26" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E635" s="26" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="F635" s="26" t="s">
         <v>874</v>
@@ -23585,10 +23590,10 @@
         <v>838</v>
       </c>
       <c r="C636" s="12" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D636" s="12" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E636" s="12" t="s">
         <v>406</v>
@@ -23617,7 +23622,7 @@
         <v>745</v>
       </c>
       <c r="D637" s="12" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="E637" s="12" t="s">
         <v>719</v>
@@ -23648,7 +23653,7 @@
         <v>87</v>
       </c>
       <c r="D638" s="12" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="E638" s="12" t="s">
         <v>71</v>
@@ -23679,7 +23684,7 @@
         <v>745</v>
       </c>
       <c r="D639" s="12" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="E639" s="12" t="s">
         <v>572</v>
@@ -23710,7 +23715,7 @@
         <v>658</v>
       </c>
       <c r="D640" s="12" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="E640" s="12" t="s">
         <v>124</v>
@@ -23739,10 +23744,10 @@
         <v>617</v>
       </c>
       <c r="D641" s="7" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="E641" s="7" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="F641" s="7" t="s">
         <v>620</v>
@@ -23768,7 +23773,7 @@
         <v>745</v>
       </c>
       <c r="D642" s="12" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="E642" s="12" t="s">
         <v>191</v>
@@ -23797,10 +23802,10 @@
         <v>557</v>
       </c>
       <c r="D643" s="12" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="E643" s="12" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="F643" s="12" t="s">
         <v>560</v>
@@ -23826,7 +23831,7 @@
         <v>810</v>
       </c>
       <c r="D644" s="11" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="E644" s="11" t="s">
         <v>131</v>
@@ -23855,7 +23860,7 @@
         <v>658</v>
       </c>
       <c r="D645" s="16" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="E645" s="16" t="s">
         <v>623</v>
